--- a/SPA_within.xlsx
+++ b/SPA_within.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,255 +446,84 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>COUNTY</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>HA</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>VERSION</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>HA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Source_CRS</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>SourcScale</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
           <t>URL</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>COUNTY</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Shape_Leng</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Shape_Area</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>geometry</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004041</t>
+          <t>004109</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ballyallia Lough SPA</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
+          <t>The Gearagh SPA</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>co</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>322.577896286</v>
+      </c>
+      <c r="F2" t="n">
         <v>2</v>
       </c>
-      <c r="E2" t="n">
-        <v>140.73437851</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Irish Grid</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1:10560</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>http://www.npws.ie/protected-sites/spa/004041</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>cl</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
-        <v>9427.05354191</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1407343.78509</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>POLYGON ((533492.7521000002 680819.4028999992, 533486.2222999996 680815.8100000005, 533475.0059000002 680806.9057, 533464.7894000001 680799.6416999996, 533449.9488000004 680792.3934000004, 533443.3409000002 680791.0811999999, 533439.0604999997 680792.3934000004, 533408.0516999997 680807.5622000005, 533396.1793 680812.8422999997, 533376.0586000001 680807.2343000006, 533360.8899999997 680795.0339000002, 533342.7532000002 680777.8815000001, 533328.2407 680763.3691000007, 533313.7281 680735.0001999997, 533264.5822999999 680642.9890000001, 533222.3724999996 680585.5954, 533208.1880000001 680566.1465000007, 533189.1138000004 680503.6444000006, 533188.9888000004 680503.7069000006, 533187.0049 680499.7390999999, 533184.1617 680490.0848999992, 533179.0533999996 680471.9013, 533174.5073999995 680455.1549999993, 533169.3991999999 680445.7819999997, 533162.8693000004 680439.5333999991, 533157.7454000004 680440.0957999993, 533141.5613000002 680409.1338999998, 533139.5773 680399.7609000001, 533136.4529999997 680394.9337000009, 533141.2800000003 680351.7711999994, 533144.1231000004 680345.2412999999, 533145.2478 680340.1173999999, 533147.5285999998 680321.9494000003, 533149.0906999996 680309.1709000003, 533150.2309999997 680302.3443, 533150.7933 680283.6139000002, 533149.6529999999 680273.3816999998, 533145.7786999997 680236.9989999998, 533136.3744000001 680232.2970000003, 533122.9554000003 680226.1264999993, 533105.5530000003 680217.0659999996, 533095.3987999996 680212.7232000008, 533077.2777000004 680203.2877999991, 533057.3289000001 680194.2273999993, 533026.1480999999 680179.7306999993, 533015.6348000001 680173.5603, 533004.7620999999 680167.3897999991, 532994.608 680161.2347999997, 532988.6092999997 680154.8925000001, 532987.7658000002 680155.7984999996, 532985.5006999997 680175.9660999998, 532977.2682999996 680216.3013000004, 532973.2847999996 680229.0797000006, 532960.5062999995 680226.5178999994, 532956.2416000003 680230.5013999995, 532955.3980999999 680243.8421999998, 532952.8361 680247.5447000004, 532946.3063000003 680252.9341000002, 532940.0576 680245.2639000006, 532940.6199000003 680230.7826000005, 532940.3388 680214.3175000008, 532940.6198000005 680191.8692000005, 532933.8087999998 680190.7445, 532934.0899999999 680186.1985999998, 532917.1717999997 680181.7620999999, 532909.2204 680195.8528000005, 532891.0994999995 680225.5965, 532879.4926000005 680244.4363000002, 532868.9792999998 680257.1367000006, 532854.1075999998 680271.2743999995, 532841.0636 680282.8814000003, 532824.0203999998 680297.7376000006, 532808.0707999999 680312.6095000003, 532793.5584000004 680319.8579999991, 532787.7939999998 680321.9045000002, 532787.2004000004 680323.9666000009, 532777.8587999996 680353.0540999994, 532773.7034 680365.7701999992, 532768.5015000002 680374.3464000002, 532760.4562999997 680371.7532000002, 532743.3194000004 680372.0033, 532740.2106999997 680372.0033, 532731.6344999997 680368.6291000005, 532721.7615999999 680368.1136000007, 532712.4198000003 680365.5205000006, 532701.0005000001 680363.4428000003, 532693.9863 680363.1773000006, 532690.0809000004 680363.6929000001, 532672.4596999995 680358.3347999994, 532661.9775999999 680365.4894999992, 532646.7466000002 680375.7374000009, 532637.8267000001 680382.5640999991, 532626.2668000003 680390.4374000002, 532617.3468000004 680397.2642000001, 532609.4578999998 680403.3098000009, 532584.7758 680421.1654000003, 532575.3246999998 680430.0855, 532571.3881000001 680435.8653999995, 532568.7637 680446.6287999991, 532568.7637 680462.1254999992, 532569.0294000003 680480.5120999999, 532569.0295000002 680494.1654000003, 532569.8104999997 680498.3676999994, 532569.8104999997 680504.6631000005, 532570.7633999996 680504.4757000003, 532583.1201 680501.9294000007, 532595.4612999996 680497.2427999992, 532608.6771 680490.4159999993, 532615.4881999996 680518.9567000009, 532620.5965 680538.5618999992, 532626.5640000002 680565.3997000009, 532633.3750999998 680593.0811999999, 532649.1374000004 680588.8321000002, 532667.8832999999 680587.9728999995, 532681.5209999997 680589.6754999999, 532699.8295 680595.6427999996, 532719.6377999997 680601.1728000008, 532726.4643999999 680604.1566000003, 532748.6158999996 680609.2645999994, 532763.9407000002 680612.2482999992, 532775.0164000001 680611.4046999998, 532786.9512999998 680609.2643999998, 532798.0269999998 680607.1397999991, 532830.8323999997 680607.5614999998, 532846.1573000001 680612.6853, 532874.6979 680608.8422999997, 532910.0652000001 680602.0309999995, 532915.1734999996 680599.4691000003, 532923.6871999996 680593.9388999995, 532961.1791000003 680594.7822999991, 532967.5684000002 680599.0470000003, 532977.7849000003 680610.9818999991, 532982.0495999996 680613.5282000005, 532993.9846000001 680629.2903000005, 533018.9012000002 680663.7983999997, 533029.5552000003 680680.4041000009, 533038.4907999998 680688.9333999995, 533041.0527999997 680696.6037000008, 533041.4744999995 680708.523, 533037.6473000003 680724.2851999998, 533027.4151999997 680744.3123000003, 533015.0586000001 680769.8693000004, 533014.6369000003 680781.7885999996, 533014.8556000004 680794.1453000009, 533023.3695 680811.6103000008, 533040.8344 680830.7778999992, 533060.0022 680849.9611000009, 533070.6562000001 680862.7396000009, 533091.9641000004 680884.8909000009, 533100.8997 680890.8428000007, 533112.8345999997 680900.6531000007, 533137.9699999997 680923.2261999995, 533185.2410000004 680960.2805000003, 533206.5489999996 680982.8535999991, 533211.2355000004 680992.6640000008, 533227.4195999997 681030.9995000008, 533227.4197000004 681048.4644000009, 533225.2951999996 681070.1941, 533222.5301999999 681086.3782000002, 533216.1254000003 681102.1403999999, 533200.8006999996 681130.6811999995, 533185.0385999996 681151.1300000008, 533174.3846000005 681164.7521000002, 533167.9954000004 681173.7032999992, 533164.5899999999 681173.2817000002, 533162.0279999999 681177.1088999994, 533153.5142000001 681184.7792000007, 533130.9411000004 681207.7899999991, 533109.6332 681227.3795999996, 533100.4790000003 681238.4554999992, 533086.8413000004 681252.0932, 533083.4358999999 681269.1207999997, 533088.5443000002 681288.2884999998, 533100.4792 681283.1800999995, 533114.9603000004 681277.2126000002, 533127.7388000004 681272.1042999998, 533257.6639999999 681331.7469999995, 533269.1615000004 681338.9796999991, 533282.7992000002 681365.3958999999, 533308.5751 681410.9796999991, 533319.2290000003 681431.0065000001, 533324.7592000002 681441.2230999991, 533335.8349000001 681460.3906999994, 533349.0351999998 681489.3531999998, 533352.8782000002 681497.0233999994, 533352.0190000003 681502.1316, 533352.8783 681506.3964000009, 533355.4245999996 681517.0503000002, 533353.9406000003 681520.4559000004, 533333.0701000001 681527.7043999992, 533328.3836000003 681530.6724999994, 533327.9619000005 681540.9046999998, 533334.3512000004 681575.8346999995, 533344.5678000003 681572.8509, 533347.9731999999 681572.8508000001, 533347.1297000004 681581.8019999992, 533381.6379000004 681606.4997000005, 533407.1948999995 681625.2455000002, 533441.2657000003 681651.6614999995, 533460.0116999997 681665.2991000004, 533476.6331000002 681672.1100999992, 533483.8660000004 681680.2019999996, 533499.6282000002 681703.6344000008, 533503.0338000003 681710.8672000002, 533503.8931 681726.2075999994, 533509.8605000004 681733.0186000001, 533523.9044000003 681747.9372000005, 533540.1040000003 681756.8727000002, 533555.4287999999 681764.5428999998, 533571.6286000004 681773.9156999998, 533575.8776000002 681750.9207000006, 533580.1421999997 681736.4238000009, 533584.4068 681710.4449000005, 533591.2176999999 681689.1525999997, 533599.3097999999 681678.4986000005, 533610.3854 681664.8608999997, 533611.6662999997 681649.5360000003, 533617.1963999998 681635.8982999995, 533620.6018000003 681625.6660999991, 533626.5692999996 681616.3088000007, 533638.0822999999 681597.5627999995, 533641.6908999998 681596.7035000008, 533650.2203000002 681604.7953999992, 533656.6096999999 681614.1684000008, 533661.7178999996 681627.3842999991, 533667.6853999998 681630.3522999994, 533679.6047 681635.0387999993, 533685.5722000003 681641.0062000006, 533691.5396999996 681641.0062000006, 533717.0965999998 681638.8815000001, 533750.7455000002 681635.8976000007, 533775.4589999998 681634.1947000008, 533793.7675000001 681629.5080999993, 533803.9994999999 681626.1024999991, 533813.3724999996 681618.8540000003, 533819.3244000003 681611.1839000005, 533830.4000000004 681598.8425999992, 533826.7914000005 681591.5942000002, 533823.8076 681587.7670000009, 533821.6675000004 681579.2375000007, 533821.6673999997 681564.3344999999, 533826.3539000005 681544.3074999992, 533828.4939000001 681522.5778999999, 533828.9156999998 681500.4263000004, 533833.1803000001 681480.8367999997, 533836.5857999995 681461.6690999996, 533837.4292000001 681439.0957999993, 533834.4611 681426.3172999993, 533831.8991 681409.2741, 533831.4773000004 681393.9337000009, 533833.6018000003 681379.0306000002, 533838.71 681370.5011999998, 533846.8020000001 681364.5493000001, 533861.2988 681360.7062999997, 533876.2018999998 681360.2843999993, 533896.2287999997 681364.9707999993, 533905.1643000003 681369.6571999993, 533921.3483999996 681383.2792000007, 533926.8941000002 681399.4789000005, 533933.2834000001 681416.5064000003, 533938.3916999996 681433.9714000002, 533941.7972999997 681451.0144999996, 533945.2185000004 681468.4794999994, 533946.0620999997 681491.0526999999, 533944.7812000001 681507.2523999996, 533941.7976000002 681518.3281999994, 533932.8620999996 681539.6204000004, 533927.1133000003 681552.8208000008, 533924.5514000002 681562.1938000005, 533927.1134000001 681581.7989000008, 533930.0815000003 681585.2043999992, 533940.3136999998 681590.3126999997, 533972.2599 681609.9176000003, 533991.4276999999 681615.0258000009, 534002.0816000002 681618.4312999994, 534040.8388999999 681618.8528000005, 534060.0221999995 681618.8527000006, 534078.3307999996 681623.1173999999, 534103.0440999996 681628.2255000006, 534113.6824000003 681629.5064000003, 534150.3307999996 681631.2090000007, 534166.0930000003 681633.7708, 534191.2126000002 681636.3169999998, 534207.4121000003 681636.3169, 534216.3476999998 681630.3494000006, 534224.0179000003 681621.4137999993, 534233.6096000001 681605.6514999997, 534255.7609000001 681566.8784999996, 534273.6475 681535.7913000006, 534285.1448999997 681511.4996000007, 534291.1124 681490.2073999997, 534291.1123000002 681469.7586000003, 534289.8311999999 681442.4988000002, 534288.9875999996 681419.9255999997, 534289.8311000001 681410.5526, 534292.8147999998 681390.9474, 534294.9392999997 681375.1852000002, 534298.3603999997 681356.8765999991, 534299.6256999997 681341.1143999994, 534298.7821000004 681330.8822000008, 534297.0791999996 681310.8708999995, 534293.2363 681295.9522999991, 534287.2844000002 681275.9409999996, 534276.2084999997 681231.6381000001, 534268.96 681206.5029000007, 534262.5707 681174.9784999993, 534258.3059 681147.7188000008, 534255.7594999997 681124.2862999998, 534256.1813000003 681113.6323000006, 534257.8839999996 681097.4483000003, 534259.5866999999 681089.3563000001, 534264.2730999999 681074.4375999998, 534271.0840999996 681065.5020000003, 534278.3324999996 681062.5182000007, 534283.4408 681062.0964000002, 534294.9384000003 681067.6263999995, 534321.3546000002 681079.1238000002, 534341.8032999998 681091.0585999992, 534352.8789999997 681097.4477999993, 534376.7333000004 681111.5070999991, 534416.7714999998 681125.9881999996, 534443.1876999997 681138.3447999991, 534462.3553999998 681153.6695000008, 534481.1014 681167.7289000005, 534492.5988999996 681179.6637999993, 534505.3775000004 681188.5993000008, 534530.0909000002 681201.3775999993, 534545.4314000001 681217.9989, 534565.0208999999 681242.2749000005, 534582.9078000002 681268.6909999996, 534589.7345000003 681278.9075000007, 534606.3403000003 681291.7015000004, 534612.7296000002 681301.0589000005, 534624.8676000005 681316.8210000005, 534638.9271 681323.6476000007, 534647.0191000002 681324.9286000002, 534655.9703000002 681329.1776, 534662.3595000003 681335.5668000001, 534669.608 681342.3934000004, 534680.2461999999 681336.0041000005, 534686.6354999999 681328.7555999998, 534687.9165000003 681324.9283000007, 534689.6191999996 681321.5072000008, 534695.5866999999 681315.977, 534697.7111999998 681309.1659999993, 534704.5378 681293.8256000001, 534711.3487 681282.7498000003, 534710.4895000001 681275.0796000008, 534706.6622000001 681265.7065999992, 534690.0406999998 681235.8849999998, 534683.6514999997 681220.5601000004, 534670.0292999996 681197.9714000002, 534664.4835999999 681189.4575999994, 534652.5642999997 681184.7711999994, 534644.0349000003 681181.3657000009, 534633.3965999996 681176.6793000009, 534624.8671000004 681166.0253999997, 534619.7588 681151.9659000002, 534618.4778000005 681135.3600999992, 534613.7912999997 681121.3006999996, 534606.5584000004 681110.6467000004, 534606.5584000004 681098.2901000008, 534609.5421000002 681089.3544999994, 534612.0883999998 681079.5596999992, 534628.2724000001 681062.0945999995, 534650.0018999996 681048.0350000001, 534665.7642000001 681038.2245000005, 534674.2934999997 681032.6943999995, 534683.6508999998 681026.3051999994, 534684.4162999997 681025.8834000006, 534683.6508 681010.5428999998, 534682.1979999999 680988.0634000003, 534681.4792999998 680965.2245000005, 534680.3858000003 680952.1805000007, 534679.6671000002 680934.7780000009, 534678.5735999998 680925.3424999993, 534671.3250000002 680895.9738999996, 534663.7016000003 680876.0406999998, 534655.0003000004 680853.9204999991, 534645.5804000003 680829.6289000008, 534635.0669999998 680812.5857999995, 534626.9124999996 680800.0728999991, 534605.5107000005 680769.2514999993, 534583.4061000003 680738.4458000008, 534564.5506999996 680717.0441999994, 534550.0382000003 680701.0945999995, 534530.4642000003 680680.0680999998, 534509.7967999997 680660.1193000004, 534500.7363 680649.2467, 534490.9414999997 680639.8268999998, 534484.4116000002 680630.7507000007, 534479.8812999995 680622.5963000003, 534470.8207 680607.0058999993, 534461.4008 680583.8079000004, 534451.6059999997 680563.4998000003, 534440.7331999997 680538.1147000007, 534434.2034 680522.8836000003, 534426.7675000001 680507.1215000004, 534422.409 680493.3432, 534419.5190000003 680482.8298000004, 534416.6133000003 680474.8472000007, 534412.9890000001 680454.9140000008, 534412.2703999998 680444.4005999994, 534413.7076000003 680427.3574000001, 534414.4417000003 680408.8614000008, 534415.1601999998 680389.2874999996, 534414.0822999999 680370.4321999997, 534412.9886999996 680354.1075999998, 534396.6797000002 680356.6539999992, 534388.9939000001 680358.8723000009, 534391.5247 680373.4316000007, 534393.4774000002 680386.1008000001, 534393.8054999998 680398.7855999991, 534395.1021999996 680419.5935999993, 534397.3830000004 680433.2468999997, 534398.0235000001 680445.2754999995, 534399.6481999997 680466.7397000007, 534400.9605 680479.4088000003, 534401.6009999998 680491.7654999997, 534404.8503 680513.2296999991, 534405.1783999996 680526.2269000001, 534405.1785000004 680538.9115999993, 534405.1785000004 680551.9088000003, 534355.7674000002 680552.2370999996, 534354.7832000004 680561.6725999992, 534353.1585999997 680568.1711999997, 534349.9093000004 680570.4518999998, 534340.1615000004 680573.7013000008, 534328.7889 680574.6699000001, 534324.2274000002 680574.0295000002, 534314.8075000001 680569.4680000003, 534304.4035999998 680567.5153000001, 534302.1228 680566.2188000008, 534293.9994999999 680546.0669, 534291.0625999998 680536.9594999999, 534287.4852 680529.4768000003, 534284.8919000002 680506.7316999994, 534283.2671999997 680495.3434999995, 534266.0367 680496.9682, 534258.8819000004 680502.1702999994, 534250.4307000004 680513.8708999995, 534247.5094999997 680518.7605000008, 534241.6513 680523.6345000006, 534232.5439999998 680527.5242999997, 534224.0926999999 680529.8051999994, 534216.6100000003 680533.7105999999, 534218.8907000003 680537.9284000006, 534222.4681000002 680543.1304000001, 534225.0768999998 680546.3953000009, 534227.0140000004 680549.3165000007, 534226.7016000003 680551.9098000005, 534224.7489 680556.4713000003, 534220.5154999997 680565.8911000006, 534213.6889000004 680575.3266000003, 534209.7834000001 680579.8725000005, 534205.5656000003 680580.5286999997, 534200.6917000003 680579.8726000004, 534194.5055 680575.9672999997, 534188.9753999999 680569.7967000008, 534187.0383000001 680560.6893000007, 534186.7101999996 680546.7079000007, 534186.0542000001 680544.7552000005, 534175.0096000005 680540.8654999994, 534169.4796000002 680549.3168000001, 534164.6056000004 680552.2380999997, 534161.0283000004 680553.8628000002, 534155.8262999998 680552.8942000009, 534153.2175000003 680550.9416000005, 534148.6716 680544.443, 534143.4696000004 680542.1623, 534125.9108999996 680538.2569999993, 534109.6487999996 680532.4145999998, 534108.0241 680535.9919000007, 534106.7275999999 680546.7083, 534103.4782999996 680554.1910999995, 534097.9483000003 680572.3903999999, 534083.6390000004 680602.6338999998, 534076.8123000003 680612.7100000009, 534074.5471999999 680603.9306000005, 534071.2978999997 680593.8546999991, 534064.7836999996 680582.4822000004, 534056.9884000001 680573.7028000001, 534050.8178000003 680568.5008000005, 534045.9282999998 680563.6269000005, 534043.3350999998 680556.1442000009, 534037.1489000004 680544.1155999992, 534034.8837000001 680540.5383000001, 534028.6974999998 680536.6327999998, 534022.1989000002 680529.4781999998, 534019.9182000002 680526.557, 534019.9182000002 680520.3863999993, 534020.5741999997 680515.8248999994, 534019.9182000002 680513.8721999992, 534016.3409000002 680513.8721999992, 534013.0915999999 680511.9195000008, 534013.7476000004 680505.7489999998, 534013.4194999998 680501.2029999997, 534005.2962999996 680497.9538000003, 534002.375 680501.2030999996, 533993.2675999999 680495.3450000007, 533984.4883000003 680486.5658, 533977.6616000002 680479.0986000001, 533960.7588999998 680460.8838999998, 533942.0442000004 680442.716, 533940.9351000004 680444.1844999995, 533939.3885000004 680448.3398000002, 533937.8263999997 680462.8836000003, 533937.3109999998 680488.3311999999, 533936.7799000004 680503.3904999997, 533933.6712999996 680522.6052000001, 533932.6246999996 680537.1488000005, 533921.7208000002 680545.4595999997, 533914.1755999997 680549.2245000005, 533913.4101999998 680580.8739, 533891.8836000003 680583.2328999992, 533880.1518000001 680582.8267999999, 533858.6251999997 680573.0478000008, 533848.7209999999 680557.2074999996, 533830.8343000002 680556.3640000001, 533813.6974 680557.4108000007, 533797.0760000004 680561.5661999993, 533772.6749999998 680573.5012999997, 533738.9167999998 680594.2783000004, 533739.8696999997 680596.9182999991, 533747.8992999997 680615.3048999999, 533751.2267000005 680620.6006000005, 533756.6942999996 680626.0680999998, 533761.3964999998 680632.3324999996, 533763.1617 680636.4408999998, 533780.1737000002 680659.5296, 533787.4221000001 680665.9813000001, 533789.7653999999 680667.1528999992, 533793.0927999998 680672.4329000004, 533795.4984999998 680679.7906999998, 533797.4824999999 680684.3366999999, 533802.5908000004 680699.6769999992, 533809.4019999998 680730.6391000003, 533813.3854999999 680745.6828000005, 533816.2286999999 680756.1961000003, 533819.3530000001 680771.5364999995, 533817.3690999998 680787.1580999997, 533816.2287999997 680797.6558999997, 533817.6503999997 680810.7312000003, 533817.3691999996 680826.0559999999, 533815.9478000002 680843.6615999993, 533812.9641000004 680850.2070000004, 533789.3912000004 680886.8399999999, 533778.8777999999 680899.3373000007, 533764.3967000004 680920.9265000001, 533741.6672999999 680952.7322000004, 533734.9968999997 680952.4510999992, 533649.7966 680943.9221000001, 533638.7208000002 680934.2681000009, 533548.9743999997 680856.4571000002, 533492.5959000001 680819.8091000002, 533492.7521000002 680819.4028999992))</t>
+          <t>http://www.npws.ie/protected-sites/spa/004109</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004077</t>
+          <t>004162</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>River Shannon and River Fergus Estuaries SPA</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>3.02</v>
+          <t>Mullaghanish to Musheramore Mountains SPA</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>co</t>
+        </is>
       </c>
       <c r="E3" t="n">
-        <v>32241.199964</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>ITM</t>
-        </is>
+        <v>4975.62530894</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.06</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1:5000</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>http://www.npws.ie/protected-sites/spa/004077</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>cl, ke, li</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
-        <v>465156.747621</v>
-      </c>
-      <c r="K3" t="n">
-        <v>322411999.645</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>MULTIPOLYGON (((551028.4670000002 657980.3920000009, 551030.1210000003 657979.5629999992, 551033.6210000003 657980.6469999999, 551036.6210000003 657980.8460000008, 551040.2429999998 657979.4920000006, 551045.0860000001 657977.7050000001, 551045.9720999999 657977.4516000003, 551046.932 657977.1769999992, 551048.3090000004 657976.7829999998, 551049.6869999999 657976.4110000003, 551052.8370000003 657975.5590000004, 551055.0820000004 657976.1730000004, 551058.4740000004 657978.1879999992, 551060.9800000004 657979.6899999995, 551064.267 657981.8609999996, 551069.7319999998 657983.1940000001, 551076.1560000004 657983.2789999992, 551082.3530000001 657982.2709999997, 551089.9069999997 657979.557, 551098.244 657972.9079999998, 551099.7640000004 657971.8059999999, 551106.5760000004 657969.6129999999, 551110.3420000002 657967.341, 551112.9850000003 657964.7960000001, 551114.4440000001 657966.3129999992, 551116.3449999997 657966.0979999993, 551121.0199999996 657965.1569999997, 551122.608 657963.841, 551123.7240000004 657962.6970000006, 551128.3640000001 657964.6109999996, 551136.1090000002 657965.6779999994, 551140.6670000004 657964.9529999997, 551145.8049999997 657961.1760000009, 551157.4400000004 657948.1809999999, 551160.4189999998 657944.8550000004, 551162.7539999997 657942.2479999997, 551164.3940000003 657940.4189999998, 551166.6789999995 657936.7489999998, 551167.6109999996 657934.4179999996, 551168.1780000003 657930.3430000003, 551169.8830000004 657925.9670000002, 551171.5049999999 657926.3269999996, 551173.0410000002 657925.5219999999, 551174.9289999995 657923.3920000009, 551175.3250000002 657921.7799999993, 551175.3260000004 657920.0209999997, 551174.2060000002 657918.0130000003, 551171.085 657914.8530000001, 551168.4440000001 657912.1400000006, 551167.7680000002 657908.5429999996, 551167.1519999998 657906.9340000004, 551165.3420000002 657905.8029999994, 551163.4400000004 657904.9829999991, 551163.1040000003 657902.8939999994, 551162.9510000004 657900.2550000008, 551162.807 657898.3059999999, 551162.9330000002 657897.0199999996, 551164.2810000004 657896.3839999996, 551165.3020000001 657895.2400000002, 551162.8870000001 657885.9810000006, 551161.9469999997 657883.2100000009, 551161.4699999997 657880.2780000009, 551161.0489999996 657877.1429999992, 551160.8320000004 657874.0649999995, 551160.5640000002 657871.784, 551159.665 657868.4179999996, 551159.5279999999 657865.1600000001, 551159.4460000005 657863.4120000005, 551164.5120000001 657864.216, 551167.6059999997 657864.3430000003, 551178.7170000002 657859.7400000002, 551184.517 657856.6559999995, 551189.4210000001 657855.0470000003, 551192.631 657854.8389999997, 551196.2089999998 657852.8300000001, 551199.1830000002 657850.0920000002, 551198.5099999998 657848.6370000001, 551198.8540000003 657846.6469999999, 551200.8439999996 657843.2070000004, 551204.4369999999 657841.3770000003, 551207.9359999998 657838.75, 551209.8770000003 657835.1449999996, 551212.7949999999 657831.7660000008, 551215.1969999997 657827.9759999998, 551219.1160000004 657818.2190000005, 551222.5820000004 657814.8320000004, 551226.0590000004 657808.6380000003, 551228.5829999996 657803.1569999997, 551229.7350000003 657800.2170000002, 551230.5700000003 657797.7190000005, 551229.7599999998 657796.6229999997, 551229.2790000001 657795.2860000003, 551229.273 657794.8100000005, 551229.7920000004 657792.7329999991, 551230.4079999998 657791.5470000003, 551230.0310000004 657790.0299999993, 551229.8119999999 657788.7119999994, 551230.0549999997 657787.2579999994, 551230.665 657785.6449999996, 551230.625 657784.3359999992, 551230.7419999996 657783.3000000007, 551231.3890000004 657781.7919999994, 551231.1780000003 657780.1300000008, 551230.7709999997 657779.0289999992, 551230.7149999999 657777.4710000008, 551231.6359999999 657775.9969999995, 551231.4670000002 657774.8450000007, 551231.1331000002 657773.4202999994, 551231.0889999997 657773.2320000008, 551231.4519999996 657771.8479999993, 551231.6468000002 657771.4630999994, 551231.858 657771.0460000001, 551232.5899999999 657770.5600000005, 551232.7553000003 657770.3473000005, 551233.4210000001 657769.4910000004, 551233.3370000003 657768.5399999991, 551232.9900000002 657767.4269999992, 551231.8459999999 657766.3589999992, 551230.8459999999 657765.3839999996, 551229.9220000003 657763.8729999997, 551229.2620000001 657762.3839999996, 551228.7599999998 657760.3440000005, 551228.5750000002 657758.8939999994, 551228.6950000003 657757.1569999997, 551228.8439999996 657754.8819999993, 551229.3779999996 657752.9609999992, 551230.0269999998 657751.6199999992, 551231.1200000001 657749.6309999991, 551231.3909999998 657747.5460000001, 551230.3399999999 657745.4179999996, 551229.9170000004 657743.9969999995, 551229.2220000001 657741.6980000008, 551228.818 657740.7149999999, 551227.034 657739.8709999993, 551225.2640000004 657739.1789999995, 551221.7790000001 657737.2850000001, 551220.3830000004 657736.0649999995, 551218.9390000002 657734.7520000003, 551217.9139999999 657732.7430000007, 551216.6979999999 657731.5800000001, 551215.1279999996 657730.7090000007, 551213.3470000001 657729.7249999996, 551210.5839999998 657727.1410000008, 551210.0860000001 657726.1229999997, 551209.6449999996 657724.2369999997, 551211.2029999997 657723.3120000008, 551210.875 657720.9499999993, 551210.5360000003 657718.5979999993, 551209.057 657715.4890000001, 551207.2620000001 657712.8010000009, 551205.2240000004 657709.6860000007, 551203.199 657706.7259999998, 551201.2960000001 657703.9780000001, 551199.3990000002 657701.6119999997, 551196.0389999999 657699.3000000007, 551192.2740000002 657697.0639999993, 551188.1639999999 657696.534, 551184.0630000001 657695.8729999997, 551180.2290000003 657695.5170000009, 551175.4620000003 657694.8650000002, 551171.3660000004 657694.5130000003, 551167.7589999996 657694.3100000005, 551163.0020000003 657693.4780000001, 551158.9699999997 657692.5779999997, 551157.1749999998 657694.5639999993, 551154.6349999998 657695.9399999995, 551152.7359999996 657697.6170000006, 551148.5839999998 657706.2530000005, 551147.8653999995 657706.6535999998, 551147.4359999998 657706.8929999992, 551145.6260000002 657708.6060000006, 551144.8770000003 657710.4350000005, 551144.9198000003 657710.7390000001, 551145.2300000004 657712.9409999996, 551145.7110000001 657715.2660000008, 551145.5779999997 657717.7660000008, 551143.9069999997 657716.4910000004, 551142.0140000004 657715.4440000001, 551142.085 657717.2520000003, 551143.2970000003 657720.8760000002, 551144.2510000002 657724.7180000003, 551145.3300000001 657728.1410000008, 551145.9740000004 657732.0830000006, 551146.0439999998 657735.6980000008, 551145.381 657739.5370000005, 551144.3250000002 657742.5950000007, 551143 657745.0390000008, 551141.2400000002 657746.8929999992, 551137.1279999996 657749.0869999994, 551131.6220000004 657750.9780000001, 551119.6720000003 657753.284, 551107.0959999999 657755.8249999993, 551102.4220000003 657757.7990000006, 551100.1569999997 657759.3029999994, 551095.1969999997 657760.1290000007, 551090.051 657760.5390000008, 551084.5420000004 657761.0449999999, 551083.2659999998 657761.1620000005, 551079.5539999995 657762.9450000003, 551076.6670000004 657764.125, 551073.4800000004 657765.1530000009, 551070.0329999998 657766.2799999993, 551067.5719999997 657767.2379999999, 551063.3360000001 657768.1850000005, 551058.3130000001 657769.6769999992, 551055.3859999999 657770.5830000006, 551050.7869999995 657771.8790000007, 551048.0099999998 657772.3420000002, 551044.5480000004 657773.2200000007, 551042.4720000001 657773.7100000009, 551040.5880000005 657774.341, 551039.4210000001 657775.0820000004, 551035.6140000001 657776.8910000008, 551032.375 657777.5859999992, 551029.3509999998 657778.3269999996, 551027.2019999996 657780.5079999994, 551025.3880000003 657781.8389999997, 551023.0899999999 657782.6539999992, 551017.5530000003 657783.1290000007, 551015.4720000001 657783.1439999994, 551008.4680000003 657784.352, 551003.2410000004 657785.7400000002, 550998.4620000003 657787.8230000008, 550994.3030000003 657789.9940000009, 550990.0020000003 657791.4409999996, 550985.0470000003 657792.7170000002, 550980.676 657794.1180000007, 550977.7810000004 657794.7259999998, 550975.3609999996 657795.2329999991, 550974.2187999999 657795.9619999994, 550973.744 657796.2650000006, 550971.6979999999 657798.1219999995, 550968.199 657799.8570000008, 550968.0077999998 657799.9388999995, 550965.6210000003 657800.9609999992, 550962.5369999995 657800.75, 550959.6730000004 657800.0490000006, 550955.2290000003 657798.5360000003, 550953.631 657797.3310000002, 550950.0899999999 657795.7349999994, 550946.9680000003 657796.2630000003, 550943.6579999998 657796.9120000005, 550941.0590000004 657797.4560000002, 550937.4160000002 657798.1329999994, 550934.1050000004 657798.7109999992, 550930.7580000004 657799.3010000009, 550927.8020000001 657799.7559999991, 550924.6730000004 657800.3560000006, 550924.6621000003 657800.3691000007, 550920.8870000001 657800.7379999999, 550919.5250000004 657800.8489999995, 550912.506 657800.8440000005, 550907.8789999997 657799.9039999992, 550896.9019999998 657797.2609999999, 550892.5240000002 657796.3059999999, 550888.6900000004 657793.2990000006, 550885.5949999997 657792.1840000004, 550881.0630000001 657792.1349999998, 550876.125 657791.1510000005, 550872.8600000003 657789.7060000002, 550869.4009999996 657788.0739999991, 550865.4570000004 657785.7329999991, 550862.2709999997 657783.0739999991, 550859.1670000004 657780.3059999999, 550856.0609999998 657777.5150000006, 550853.4500000002 657774.1940000001, 550850.4069999997 657771.5319999997, 550847.926 657770.1490000002, 550845.1969999997 657770.6359999999, 550841.0199999996 657768.6309999991, 550839.7489999998 657767.8619999997, 550837.9500000002 657767.659, 550833.8540000003 657768.3190000001, 550829.307 657769.0079999994, 550824.0199999996 657770.4079999998, 550819.79 657771.7589999996, 550815.6550000003 657773.0130000003, 550813.6239999998 657774.1569999997, 550811.0700000003 657777.2579999994, 550808.3399999999 657779.4829999991, 550804.7640000004 657780.7899999991, 550798.9100000001 657781.6129999999, 550794.2199999997 657781.3650000002, 550789.5690000001 657781.3890000004, 550788.358 657782.3200000003, 550786.9299999997 657783.4199999999, 550785.1610000003 657786.3699999992, 550784.5860000001 657788.8870000001, 550783.9359999998 657792.9279999994, 550783.477 657796.1209999993, 550782.0360000003 657798.7090000007, 550779.932 657802.5779999997, 550778.8619999997 657805.4350000005, 550777.1739999996 657808.2520000003, 550776.4349999996 657809.7620000001, 550772.6399999997 657816.5449999999, 550771.7630000003 657818.5519999992, 550770.9129999997 657820.9890000001, 550769.523 657822.9700000007, 550767.9400000004 657823.8220000006, 550763.8540000003 657825.1710000001, 550759.1279999996 657825.8499999996, 550752.7359999996 657827.3959999997, 550748.1359999999 657828.5730000008, 550746.6969999997 657830.5059999991, 550744.8119999999 657832.8029999994, 550742.744 657834.8509999998, 550740.3899999997 657836.7129999995, 550738.2149999999 657837.8359999992, 550735.9330000002 657839.8389999997, 550733.5099999998 657842.9039999992, 550730.3870000001 657846.0840000007, 550727.4560000002 657848.4879999999, 550724.7719999999 657850.7119999994, 550722.5520000001 657852.8690000009, 550720.2259999998 657853.3990000002, 550717.0190000003 657853.7249999996, 550715.0690000001 657853.7740000002, 550713.3279999997 657854.3560000006, 550711.8789999997 657854.5879999995, 550711.034 657854.5639999993, 550710.7910000002 657853.1980000008, 550711.4440000001 657851.2520000003, 550713.841 657847.034, 550716.7939999998 657844.5329999998, 550718.648 657842.5830000006, 550721.9289999995 657840.4949999992, 550724.46 657839.4149999991, 550726.2920000004 657838.4289999995, 550727.534 657838.7689999994, 550729.1840000004 657841.3650000002, 550730.0539999995 657842.4250000007, 550731.3909999998 657841.8489999995, 550733.2800000003 657839.8369999994, 550735.8269999996 657836.1649999991, 550735.4050000003 657834.8619999997, 550734.051 657834.0580000002, 550732.6809999999 657833.9690000005, 550731.0080000004 657833.3010000009, 550729.943 657831.409, 550728.767 657829.2369999997, 550727.4589999998 657826.5539999995, 550727.2079999996 657823.5360000003, 550726.0219999999 657820.1720000003, 550725.8459999999 657818.4979999997, 550725.9519999996 657815.6410000008, 550727.3820000002 657811.2090000007, 550731.5209999997 657804.6260000002, 550731.131 657801.0749999993, 550728.0959999999 657797.2949999999, 550724.4670000002 657793.523, 550721.6629999997 657792.7860000003, 550718.0980000002 657791.2620000001, 550714.9460000005 657789.4100000001, 550712.1969999997 657787.4829999991, 550709.5609999998 657785.0539999995, 550707.875 657782.4710000008, 550706.3420000002 657778.8859999999, 550704.0470000003 657776.2039999999, 550701.8949999996 657774.3870000001, 550699.6919999998 657773.3690000009, 550696.1529999999 657772.8550000004, 550694.8940000003 657773.9539999999, 550687.9210000001 657776.5050000008, 550684.7829999998 657780.352, 550682.8909999998 657785.0390000008, 550681.0650000004 657788.2630000003, 550679.4879999999 657791.4230000004, 550677.8899999997 657793.9289999995, 550674.8770000003 657797.2880000006, 550672.5180000002 657799.875, 550669.1399999997 657801.75, 550665.1050000004 657803.3359999992, 550661.8210000005 657804.1989999991, 550660.193 657804.3509999998, 550656.8329999996 657803.9179999996, 550653.5700000003 657800.8550000004, 550648.9000000004 657796.5850000009, 550646.6239999998 657793.5219999999, 550645.1869999999 657790.8990000002, 550643.426 657787.068, 550642.2189999996 657783.943, 550644.0329999998 657782.5399999991, 550647.8859999999 657779.6239999998, 550649.0180000002 657777.0629999992, 550650.4570000004 657774.2379999999, 550650.591 657771.6429999992, 550650.5181 657769.4806999993, 550650.5140000004 657769.3599999994, 550650.8899999997 657768.0820000004, 550651.9450000003 657767.7949999999, 550652.1856000004 657767.7846000008, 550652.7300000004 657767.7609999999, 550654.4380000001 657767.3819999993, 550655.2400000002 657767.8120000008, 550656.9160000002 657769.5399999991, 550659.9270000001 657770.5950000007, 550662.2580000004 657769.6740000006, 550664.2980000004 657770.0639999993, 550666.8779999996 657770.0429999996, 550670.4349999996 657768.1530000009, 550673.7010000004 657764.9470000006, 550677.1078000003 657762.0438000001, 550677.5839999998 657761.6380000003, 550679.9929999998 657757.5030000005, 550683.591 657750.4869999997, 550683.8587999996 657749.7208999991, 550685.943 657743.7589999996, 550688.7039999999 657739.2149999999, 550690.0870000003 657735.7719999999, 550690.1140000001 657732.3220000006, 550691.5889999997 657725.8200000003, 550693.7319999998 657717.6209999993, 550695.9620000003 657712.4179999996, 550702.3099999996 657706.4839999992, 550704.4390000002 657700.0099999998, 550704.9050000003 657694.6390000004, 550705.71 657690.6319999993, 550711.1560000004 657688.5629999992, 550715.9879999999 657687.8469999991, 550719.8540000003 657686.8929999992, 550724.8200000003 657685.4859999996, 550726.9199999999 657679.5710000005, 550727.7750000004 657675.682, 550729.6009999998 657674.3139999993, 550732.5290000001 657674.443, 550734.3480000002 657675.3000000007, 550737.1610000003 657675.716, 550738.693 657676.4330000002, 550740.3859999999 657676.7689999994, 550743.7529999996 657675.9409999996, 550747.6380000003 657674.5590000004, 550753.1529999999 657671.4800000004, 550758.1330000004 657670.2249999996, 550761.949 657669.9979999997, 550765.7949999999 657668.4849999994, 550769.9249999998 657666.8259999994, 550773.8859999999 657663.9920000006, 550776.9280000003 657660.9680000003, 550779.6830000002 657657.7799999993, 550781.165 657654.716, 550781.8669999996 657651.9240000006, 550782.9960000003 657649.0299999993, 550783.4689999996 657645.9670000002, 550784.1390000004 657641.6410000008, 550783.4989999998 657638.1040000003, 550782.7580000004 657635.0800000001, 550781.6260000002 657632.1689999998, 550778.9730000002 657630.216, 550776.4460000005 657628.9759999998, 550773.0640000002 657627.7459999993, 550768.784 657626.0160000008, 550763.7199999997 657624.4169999994, 550759.8679999998 657624.5610000007, 550756.5369999995 657625.4949999992, 550753.1119999997 657626.5270000007, 550751.3540000003 657627.5840000007, 550748.7039999999 657629.7479999997, 550746.4790000003 657630.5840000007, 550741.9189999998 657629.3110000007, 550739.0719999997 657627.1699999999, 550736.5729999999 657624.3120000008, 550734.8799999999 657621.2520000003, 550733.5520000001 657617.773, 550733.3109999998 657613.8029999994, 550732.4119999995 657612.3629999999, 550729.9639999997 657610.7770000007, 550727.9110000003 657608.3049999997, 550726.1720000003 657606.3289999999, 550724.165 657604.6769999992, 550722.5240000002 657602.9140000008, 550721.5470000003 657600.8809999991, 550720.7960000001 657598.0360000003, 550720.7779999999 657595.716, 550721.5880000005 657593.9210000001, 550723.0800000001 657592.4159999993, 550723.9639999997 657592.7139999997, 550725.4079999998 657594.0739999991, 550726.3760000002 657595.2990000006, 550727.9249999998 657597.3259999994, 550729.2359999996 657599.4499999993, 550731.0630000001 657600.8540000003, 550732.3859999999 657599.2310000006, 550732.3279999997 657597.4839999992, 550731.0199999996 657595.6439999994, 550731.0460000001 657594.0260000005, 550742.3449999997 657586.4350000005, 550747.1090000002 657578.6070000008, 550748.7259999998 657571.5659999996, 550749.801 657567.4460000005, 550751.0319999997 657564.3650000002, 550748.9730000002 657559.6809999999, 550748.0719999997 657558.0979999993, 550756.1430000002 657553.9859999996, 550759.8619999997 657550.7510000002, 550763.7220000001 657545.7050000001, 550763.8609999996 657540.7430000007, 550764.665 657536.5930000003, 550765.2769999998 657533.3849999998, 550767.8540000003 657528.3560000006, 550771.1169999996 657524.9839999992, 550775.3399999999 657519.4210000001, 550779.6869999999 657511.5150000006, 550781.7450000001 657504.9460000005, 550782.1260000002 657502.2170000002, 550782.9639999997 657501.7190000005, 550784.6239999998 657502.2569999993, 550785.0719999997 657501.9419999998, 550785.9519999996 657500.9189999998, 550786.5999999996 657499.5319999997, 550786.3159999996 657498.6909999996, 550784.318 657498.7880000006, 550781.7810000004 657498.4509999994, 550779.0920000002 657498.5089999996, 550775.341 657498.1410000008, 550773.4989999998 657497.284, 550771.9019999998 657496.1980000008, 550770.5609999998 657494.5629999992, 550772.8109999998 657491.9159999993, 550775.6569999997 657489.3579999991, 550776.9069999997 657489.4260000009, 550777.4989999998 657490.1439999994, 550786.1720000003 657478.2080000006, 550788.3870000001 657470.0319999997, 550789.6550000003 657466.9230000004, 550792.1289999997 657465.9989999998, 550794.3430000003 657466.0179999992, 550796.4970000004 657467.1329999994, 550800.4139999999 657467.3320000004, 550802.3870000001 657464.4159999993, 550803.6100000003 657461.4749999996, 550804.5899999999 657458.9749999996, 550802.841 657455.2750000004, 550797.568 657448.5639999993, 550791.1390000004 657444.3139999993, 550780.8789999997 657437.3680000007, 550774.5209999997 657434.1549999993, 550765.1689999998 657432.1329999994, 550757.6399999997 657433.0629999992, 550747.2249999996 657433.4820000008, 550740.5820000004 657433.1150000002, 550737.5669999998 657432.6420000009, 550736.3310000002 657430.9210000001, 550735.4610000001 657426.9940000009, 550736.7359999996 657421.7090000007, 550743.0549999997 657412.5999999996, 550744.6550000003 657407.4879999999, 550754.6449999996 657402.6610000003, 550762.1370000001 657391.3599999994, 550766.983 657387.9550000001, 550782.0729999999 657379.3159999996, 550785.835 657376.7339999992, 550798.3480000002 657376.6209999993, 550804.0880000005 657377.0950000007, 550805.5810000002 657377.6830000002, 550809.1569999997 657377.2919999994, 550818.4369999999 657376.5179999992, 550822.1660000002 657376.3169999998, 550824.8859999999 657376.1710000001, 550825.3799999999 657376.1439999994, 550827.7920000004 657376.0059999991, 550828.4670000002 657373.8920000009, 550828.9079999998 657371.1740000006, 550828.8420000002 657364.1569999997, 550825.898 657357.1999999993, 550825.5779999997 657356.6860000007, 550822.0420000004 657351.0069999993, 550820.3480000002 657348.2899999991, 550815.0760000004 657340.7329999991, 550810.5970000001 657337.4230000004, 550799.6129999999 657332.4260000009, 550778.0580000002 657323.0669999998, 550770.1529999999 657319.7780000009, 550764.1260000002 657317.3330000006, 550761.5949999997 657316.557, 550757.631 657316.4289999995, 550745.5889999997 657328.1099999994, 550729.1569999997 657341.6439999994, 550727.2970000003 657343.2139999997, 550714.7429999998 657349.3220000006, 550702.6370000001 657357.091, 550698.023 657362.7410000004, 550693.108 657371.8090000004, 550687.8540000003 657382.3310000002, 550686.8080000002 657387.9350000005, 550687.9189999998 657404.0989999995, 550687.0630000001 657409.7479999997, 550687.4800000004 657411.6109999996, 550687.6359999999 657413.5720000006, 550685.5360000003 657418.6889999993, 550681.6050000004 657426.6030000001, 550679.9380000001 657431.977, 550682.1639999999 657434.9220000003, 550684.1220000004 657438.2630000003, 550684.0769999996 657440.3340000007, 550684.1320000002 657441.7960000001, 550680.5350000001 657443.4120000005, 550677.2869999995 657444.2630000003, 550672.2489999998 657445.5769999996, 550666.6050000004 657446.0419999994, 550664.4649999999 657446.1410000008, 550641.8940000003 657457.7770000007, 550627.8250000002 657469.1750000007, 550613.1449999996 657481.1510000005, 550608.517 657485.7310000006, 550607.6359999999 657487.5500000007, 550606.9069999997 657490.034, 550606.9220000003 657494.9340000004, 550607.6619999995 657503.5010000002, 550608.5439999998 657509.1999999993, 550601.7803999996 657518.2098999992, 550600.3569999998 657520.1060000006, 550596.8059999999 657526.0879999995, 550591.551 657536.2799999993, 550591.1566000003 657537.8227999993, 550591.0269999998 657538.3300000001, 550587.602 657547.6520000007, 550579.5140000004 657562.6009999998, 550576.1270000003 657572.0779999997, 550574.926 657576.8279999997, 550575.7039999999 657581.8379999995, 550574.9730000002 657590.7090000007, 550577.5800000001 657601.0950000007, 550579.3820000002 657615.3939999994, 550580.244 657623.2579999994, 550581.2869999995 657628.5500000007, 550581.4929999998 657630.6999999993, 550579.4720000001 657633.6160000004, 550570.9579999996 657639.3880000003, 550566.7290000003 657641.6549999993, 550564.4189999998 657644.3129999992, 550562.8619999997 657646.2009999994, 550562.023 657648.5309999995, 550554.25 657653.6380000003, 550546.5186000001 657660.9350000005, 550544.8710000003 657662.4900000002, 550537.2429999998 657670.6530000009, 550530.6150000002 657677.8870000001, 550529.8841000004 657678.7500999998, 550527.2039999999 657681.9149999991, 550525.3430000003 657685.1750000007, 550524.0010000002 657685.3709999993, 550522.3550000004 657686.7709999997, 550520.9665999999 657688.8401999995, 550519.7630000003 657690.6339999996, 550517.7939999998 657695.6679999996, 550516.1449999996 657697.9370000008, 550514.7819999997 657701.1429999992, 550514.1529999999 657703.1140000001, 550512.8849999998 657704.3190000001, 550511.2450000001 657704.5059999991, 550510.5099999998 657703.7430000007, 550510.1409999998 657701.9279999994, 550510.3650000002 657698.9509999994, 550510.2070000004 657694.0529999994, 550508.8119999999 657691.0480000004, 550506.5 657691.6129999999, 550503.2489999998 657693.1420000009, 550499.8660000004 657691.9130000006, 550494.2939999998 657690.5219999999, 550488.9060000004 657689.6860000007, 550483.8720000004 657690.3929999992, 550478.9879999999 657691.7640000004, 550475.3660000004 657691.2390000001, 550470.6940000001 657688.7060000002, 550466.4790000003 657681.8489999995, 550462.0650000004 657674.3760000002, 550458.9170000004 657670.0859999992, 550454.9040000001 657667.9140000008, 550449.2759999996 657667.8310000002, 550443.7400000002 657669.1980000008, 550438.2779999999 657670.9690000005, 550431.2970000003 657673.8900000006, 550426.6880000001 657676.2569999993, 550425.267 657677.6190000009, 550423.7709999997 657677.8530000001, 550422.6090000002 657677.2609999999, 550422.409 657675.5620000008, 550424.0760000004 657672.9120000005, 550429.4550000001 657668.3829999994, 550432.6380000003 657665.284, 550433.0599999996 657659.2369999997, 550432.9680000003 657658.8530000001, 550432.2580000004 657655.8890000004, 550431.2000000002 657651.4800000004, 550428.352 657645.4629999995, 550423.8130000001 657640.2870000005, 550420.369 657636.1789999995, 550412.8279999997 657629.6500000004, 550403.7340000002 657627.3640000001, 550389.7309999997 657624.4030000009, 550379.6169999996 657621.3560000006, 550371.7220000001 657617.9370000008, 550361.7060000002 657616.0189999994, 550355.3140000002 657614.6740000006, 550350.5039999997 657614.4020000007, 550343.443 657615.7410000004, 550336.9380000001 657621.4269999992, 550331.9740000004 657625.8210000005, 550329.3099999996 657629.5899999999, 550326.6509999996 657632.8010000009, 550316.0590000004 657637.9810000006, 550310.9160000002 657641.3049999997, 550306.7834000001 657647.8195999991, 550306.2750000004 657648.6209999993, 550302.7149999999 657653.9360000007, 550299.6330000004 657657.5089999996, 550299.4327999996 657657.9894999992, 550298.6169999996 657659.9480000008, 550299.3289999999 657662.5439999998, 550300.3194000004 657664.1130999997, 550300.6399999997 657664.6209999993, 550303.8250000002 657666.2459999993, 550305.6399999997 657670.5759999994, 550305.6233000001 657670.9097000007, 550305.4040000001 657675.3019999992, 550303.6009999998 657677.5370000005, 550301.3779999996 657681.4069999997, 550301.244 657683.7949999999, 550300.4780000001 657685.7569999993, 550299.9730000002 657687.1129999999, 550299.4230000004 657688.9890000001, 550298.7149999999 657691.3389999997, 550298.6909999996 657693.307, 550298.6299999999 657694.6699999999, 550298.9330000002 657696.4639999997, 550299.5329999998 657698.727, 550299.4740000004 657700.1109999996, 550298.4869999997 657701.6449999996, 550296.7350000003 657702.2190000005, 550294.2949999999 657702.4450000003, 550291.9119999995 657703.5270000007, 550287.0389999999 657706.8890000004, 550280.2779999999 657713.1530000009, 550278.517 657716.4940000009, 550275.1200000001 657718.1079999991, 550266.3760000002 657733.2379999999, 550258.301 657745.7129999995, 550252.7089999998 657753.7860000003, 550249.5729999999 657763.034, 550246.9890000001 657772.2019999996, 550245.6720000003 657786.2459999993, 550245.4440000001 657797.7249999996, 550245.4069999997 657801.8389999997, 550245.375 657804.0350000001, 550245.5120000001 657806.2349999994, 550245.7359999996 657808.0749999993, 550246.193 657809.9489999991, 550246.4299999997 657811.0099999998, 550246.4589999998 657812.227, 550246.8739999998 657813.9619999994, 550248.1720000003 657814.4859999996, 550249.4199999999 657815.4839999992, 550250.8380000005 657818.557, 550252.1639999999 657822.4560000002, 550261.5889999997 657844.6030000001, 550265.5180000002 657853.8259999994, 550266.7450000001 657853.9759999998, 550272.398 657863.4800000004, 550275.3339999998 657870.6439999994, 550276.3839999996 657875.5219999999, 550276.2309999997 657877.4100000001, 550275.699 657878.4460000005, 550275.9879999999 657880.1239999998, 550277.3260000004 657881.0850000009, 550278.7410000004 657882.6620000005, 550280.869 657884.1989999991, 550284.5240000002 657893.0360000003, 550291.1330000004 657910.1850000005, 550293.4960000003 657914.2210000008, 550295.21 657917.1500000004, 550299.6409999998 657924.7190000005, 550302.426 657927.7090000007, 550306.7400000002 657929.9729999993, 550311.6770000001 657931.3579999991, 550315.5 657931.466, 550320.2050000001 657930.5559999999, 550324.2019999996 657929.2420000006, 550327.1330000004 657929.591, 550329.1969999997 657931.0989999995, 550330.8370000003 657935.4989999998, 550336.4680000003 657942.2740000002, 550345.6299999999 657952.4519999996, 550349.8200000003 657958.8029999994, 550352.9970000004 657960.6909999996, 550359.182 657962.2829999998, 550371.3640000001 657964.9169999994, 550380.8439999996 657967.784, 550394.0760000004 657970.3839999996, 550410.551 657975.3910000008, 550416.7549999999 657977.341, 550419.4380000001 657977.4330000002, 550422.0729999999 657976.5480000004, 550426.2429999998 657975.6669999994, 550442.9160000002 657975.3110000007, 550458.9009999996 657975.2009999994, 550470.5489999996 657974.3859999999, 550476.216 657974.2640000004, 550478.966 657974.2050000001, 550482.9040000001 657974.1199999992, 550493.0300000003 657975.2990000006, 550500.6490000002 657975.7249999996, 550507.8329999996 657975.6809999999, 550514.4989999998 657975.1309999991, 550524.0159999998 657972.4279999994, 550532.0360000003 657971.6950000003, 550542.9409999996 657971.4250000007, 550561.6500000004 657972.2070000004, 550574.0669999998 657973.0120000001, 550585.3439999996 657973.9020000007, 550605.0120000001 657974.3760000002, 550615.0480000004 657974.1050000004, 550624.6469999999 657974.9330000002, 550631.7209999999 657973.6769999992, 550648.9160000002 657974.182, 550662.0140000004 657976.2149999999, 550677.227 657977.9590000007, 550688.994 657978.1520000007, 550694.5389999999 657978.2949999999, 550701.4369999999 657976.3039999995, 550703.9440000001 657975.2009999994, 550707.6440000003 657977.0930000003, 550709.1490000002 657978.2430000007, 550710.6600000001 657979.398, 550716.6770000001 657980.2369999997, 550726.1119999997 657981.3530000001, 550737.824 657980.8579999991, 550746.3090000004 657980.2970000003, 550751.0319999997 657980.3200000003, 550757.1440000003 657981.0629999992, 550765.2139999997 657982.3499999996, 550767.3320000004 657981.8479999993, 550773.6359999999 657980.8739999998, 550777.1684999997 657980.5781999994, 550778.4730000002 657980.4690000005, 550778.6834000004 657971.7954999991, 550779.4956999999 657964.3284000009, 550781.2609999999 657959.2982000001, 550783.8386000004 657956.0489000008, 550788.6031 657954.9553999994, 550793.3520999998 657953.1900999993, 550800.5536000002 657952.6433000006, 550803.2718000002 657950.0657000002, 550805.9899000004 657949.6596000008, 550808.4269000003 657953.1899999995, 550820.5336999996 657953.0493999999, 550825.9879999999 657953.4670000002, 550831.8812999995 657949.2573000006, 550835.4440000001 657945.2890000008, 550835.8279999997 657943.7369999997, 550840.4730000002 657944.1300000008, 550846.1069999998 657943.7960000001, 550850.0719999997 657941.3660000004, 550852.6979999999 657939.227, 550853.3399999999 657939.5309999995, 550859.6780000003 657942.5260000005, 550864.1150000002 657944.6239999998, 550871.6550000003 657947.227, 550877.9859999996 657949.3589999992, 550882.8779999996 657950.5099999998, 550890.0760000004 657950.5720000006, 550895.915 657950.4859999996, 550903.5109999999 657950.9820000008, 550907.8119999999 657953.3660000004, 550910.8729999997 657954.659, 550913.619 657954.4930000007, 550916.8720000004 657953.9519999996, 550923.3530000001 657960.3870000001, 550929.9139999999 657965.4890000001, 550937.6859999998 657969.5889999997, 550948.5939999996 657972.3279999997, 550960.2010000004 657974.9509999994, 550975.6220000004 657978.0950000007, 550984.6239999998 657978.8369999994, 550991.4730000002 657977.6190000009, 550994.2719999999 657977.0120000001, 550996.1030000001 657977.8090000004, 550997.2170000002 657978.5209999997, 550997.8020000001 657979.5600000005, 550998.9639999997 657981.1620000005, 551000.96 657981.8389999997, 551006.8269999996 657983.0490000006, 551015.7170000002 657985.2300000004, 551021.2379999999 657985.3019999992, 551024.7999999998 657983.8420000002, 551028.4670000002 657980.3920000009)), ((535581.0601000004 674089.2326999996, 535589.6206999999 674069.7523999996, 535591.9013999999 674065.5344999991, 535597.4315 674056.9271000009, 535603.7582 674048.0227000006, 535608.1009999998 674042.1958000008, 535611.0066 674039.0402000006, 535621.3948999997 674028.0737999994, 535627.7216999996 674019.6849000007, 535632.2675000001 674015.6700999998, 535639.9533000002 674008.6714999992, 535646.3581999997 674002.9695999995, 535651.4195999997 673997.0177999996, 535661.4642000003 673985.6295999996, 535665.3852000004 673979.5996000003, 535667.4160000002 673973.9445999991, 535668.5094999997 673967.8365000002, 535668.6813000003 673960.6193000004, 535667.9939000001 673954.4175000004, 535666.0568000004 673947.5439999998, 535663.7448000005 673939.6550999992, 535662.4117999999 673936.3981999997, 535659.4801000003 673929.2355000004, 535658.7813999997 673927.4405000005, 535655.6370999999 673919.3626000006, 535653.9500000002 673913.4576999992, 535650.2789000003 673900.0074000005, 535643.9989 673880.8084999993, 535640.7495999997 673868.6236000005, 535634.76</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004168</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Slieve Aughty Mountains SPA</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="E4" t="n">
-        <v>27813.4039614</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Irish Grid</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1:10560</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>http://www.npws.ie/protected-sites/spa/004168</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>cl</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
-        <v>878396.343783</v>
-      </c>
-      <c r="K4" t="n">
-        <v>278134039.614</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>MULTIPOLYGON (((550888.5486000003 683033.7591999993, 550937.2724000001 683017.3249999993, 550963.8915999997 683011.0919000003, 550996.7594999997 683005.4366999995, 551047.1704000002 683000.9061999992, 551096.4566000002 682993.5325000007, 551127.0436000004 682983.3314999994, 551141.7747999998 682972.0056999996, 551170.0966999996 682953.8845000006, 551194.4506999999 682934.6228999998, 551212.5093 682926.2496000007, 551258.3273999998 682898.8021000009, 551298.9435 682883.1802999992, 551316.2991000004 682884.2113000005, 551326.7187999999 682886.9919000007, 551393.3761999998 682925.1708000004, 551546.8118000003 682951.2114000004, 551583.4758000001 682956.9443999995, 551584.2567999996 682955.9758000001, 551612.8443 682919.3272999991, 551614.2658000002 682917.4996000007, 551707.6988000004 682941.5096000005, 551697.8573000003 682993.8421, 551744.6440000003 683007.9951000009, 551758.1879000003 682958.7400000002, 551844.3723999998 682999.3715000004, 551874.3344 682958.6144999992, 551925.0579000004 682967.3155000005, 551918.6063999999 683046.7203000002, 552014.6325000003 683067.9184000008, 552014.8825000003 683067.9652999993, 552000.7293999996 683103.8325999994, 552023.8493999997 683112.7992000002, 552067.5118000004 683122.0001999997, 552081.1963999998 683123.4217000008, 552135.4814999998 683130.0294000003, 552166.1623999998 683147.0255999994, 552179.3783 683162.1160000004, 552274.2482000003 683125.7796, 552307.2880999995 683187.6098999996, 552330.4234999996 683130.4970999993, 552323.3311999999 683105.4868999999, 552314.6141999997 683070.3225999996, 552300.9139 683018.8651, 552307.0532 683019.8179000001, 552346.2322000004 683017.9276, 552375.0228000004 683013.2095999997, 552391.5347999996 682990.0738999993, 552411.3742000004 682960.3458999991, 552414.2017000001 682953.7379999999, 552391.0661000004 682947.1301000006, 552332.7818 682930.3684, 552276.6063999999 682915.2624999993, 552233.1939000003 682911.0135999992, 552170.4106999999 682902.0471000001, 552129.1072000004 682896.1579, 552085.6789999995 682886.2383999992, 552043.6723999996 682866.8835000005, 552012.5229000002 682841.8732999992, 551979.4830999998 682809.3024000004, 551916.4808999998 682736.8496000003, 551885.3157000002 682702.3883999996, 551855.119 682664.1623999998, 551823.0164999999 682624.0461999997, 551792.1010999996 682576.1349, 551765.2006999999 682542.6264999993, 551740.1747000003 682500.6201000009, 551712.3369000005 682454.8332000002, 551684.2489999998 682416.3573000003, 551668.2056999998 682396.0648999996, 551647.8975 682372.4606999997, 551619.591 682345.0917000007, 551589.3787000002 682320.5502000004, 551565.7744000005 682298.8363000005, 551564.0247999998 682293.7280000001, 551534.7969000004 682328.2050999999, 551503.4755999995 682365.7908999994, 551495.8991999999 682366.4471000005, 551483.6986999996 682363.8070999999, 551484.6829000004 682352.4345999993, 551487.6508 682326.3933000006, 551493.5869000005 682273.9670000002, 551500.5071999999 682249.9097000007, 551512.0515000001 682230.7731999997, 551526.1108999997 682209.8713000007, 551525.4236000003 682208.4496999998, 551489.5406 682177.3004000001, 551456.9069999997 682151.0406, 551446.1281000003 682142.3706, 551421.5864000004 682122.0781999994, 551395.3888999997 682080.3061999995, 551369.4255999997 682040.1742000002, 551366.4886999996 682035.2534999996, 551359.0372000001 682022.7093000002, 551296.2692 681922.6531000007, 551275.0236999998 681889.1447000001, 551253.7781999996 681855.6364999991, 551215.0833999999 681804.1789999995, 551206.1166000003 681793.7906, 551202.3361 681793.3220000006, 551169.7653999999 681900.9396000002, 551162.2202000003 681931.1519000009, 551160.5645000003 681964.8947000001, 551159.6272999998 682008.7914000005, 551154.4254000001 682043.7214000002, 551154.1129999999 682043.7526999991, 551031.4677999998 682054.3446999993, 551000.7869999995 682057.1722999997, 550948.392 682060.9530999996, 550933.3015999999 682057.1727000009, 550900.2619000003 682052.4550999999, 550860.1299999999 682048.6747999992, 550855.5840999996 682048.4406000003, 550823.7939999998 682046.7848000005, 550782.0219 682046.0821000002, 550741.9056000002 682045.6136000007, 550679.1222999999 682049.3944000006, 550649.8942999998 682052.6907000002, 550582.8307999996 682060.2519000005, 550541.0586000001 682065.6727000009, 550509.4403999997 682073.2182, 550454.6868000003 682083.1381999999, 550412.9615000002 682096.4636000004, 550376.3288000003 682108.1488000005, 550304.8288000003 682130.5818000007, 550267.5400999999 682145.2038000003, 550224.5806999998 682161.7316999994, 550171.2485999996 682190.9912999999, 550126.4146999996 682221.2037000004, 550057.7422000002 682252.1193000004, 550046.5728000002 682256.1964999996, 550004.8787000002 682271.4747000001, 549965.2311000004 682281.8476999998, 549915.1951000001 682291.2990000006, 549847.9285000004 682308.0457000006, 549833.2441999996 682310.8107999992, 549817.7319999998 682313.7164999992, 549736.0623000003 682333.0722000003, 549604.6221000003 682363.0350000001, 549563.5528999995 682374.3608999997, 549519.6562000001 682386.6397999991, 549515.1103999997 682386.6397999991, 549518.5942000002 682471.8557999991, 549522.1091999998 682509.7537999991, 549525.6085000001 682525.1879999992, 549573.3169 682534.9980999995, 549576.8317 682527.2810999993, 549580.3309000004 682515.3617000002, 549591.5628000004 682499.2245000005, 549604.1851000004 682486.6021999996, 549615.4170000004 682479.5724, 549623.8371000001 682480.9782999996, 549619.6193000004 682507.6444000006, 549660.3135000002 682498.5211999994, 549684.1677000001 682499.9269999992, 549675.7478999998 682570.0839000009, 549670.8427999998 682571.4898000006, 549668.0310000004 682607.2633999996, 549690.4793999996 682667.6096000001, 549712.2248999998 682726.5342999995, 549716.4428000003 682733.5483999997, 549717.1457000002 682740.5625, 549718.5515999999 682746.1707000006, 549681.3567000004 682763.7138999999, 549632.6017000005 682784.0691, 549615.0586000001 682793.1766999997, 549544.1990999999 682807.9238000009, 549521.0477 682730.7375000007, 549520.3444999997 682706.8988000005, 549515.4393999996 682706.1959000006, 549477.5570999999 682718.1153999995, 549450.8909999998 682726.5354999993, 549422.1316 682735.6587000005, 549420.7255999995 682733.5499000009, 549403.8854999999 682713.9134999998, 549388.4512999998 682700.5726999994, 549366.7060000002 682690.0594999995, 549342.8518000003 682680.9365999997, 549324.6057000002 682673.9224999994, 549307.7812000001 682664.7994999997, 549290.9409999996 682652.8647000007, 549274.8038999997 682634.6344000008, 549262.8689000001 682616.3883999996, 549250.9495000001 682586.2229999993, 549246.7317000004 682572.1948000006, 549243.9353 682549.7465000004, 549243.9353 682534.9997000005, 549246.7314999998 682518.8626000006, 549252.3552999999 682505.5373, 549267.0862999996 682478.8867000006, 549286.7226 682449.4086000007, 549293.0336999996 682441.6915000007, 549303.5625999998 682435.3803000003, 549281.5362 682435.0210999995, 549220.6431999998 682443.9882999994, 549158.8284999998 682453.1272, 549151.9705999997 682454.1425999999, 549136.4583999999 682456.6108999997, 549136.8020000001 682474.6696000006, 549119.9620000003 682475.3570000008, 549119.6026999997 682483.2771000005, 549100.3256999999 682483.9645000007, 549101.3722000001 682462.1879999992, 549089.6716 682464.0471000001, 548998.5663999999 682476.3260999992, 548976.3838 682476.3261999991, 548954.6698000003 682476.7949999999, 548925.6447999999 682484.1061000004, 548869.4694999997 682500.1654000003, 548846.3496000003 682509.6009, 548814.7314999998 682523.2857000008, 548787.3469000002 682537.9232000001, 548750.5268000001 682546.4215999991, 548718.4398999996 682540.7511, 548676.9019999998 682528.9569000006, 548626.8660000004 682513.8510999996, 548620.7265999997 682513.8510999996, 548658.0154999997 682537.9239000008, 548678.7923999997 682551.6083000004, 548702.6309000002 682561.2780000009, 548730.9373000003 682582.0546000004, 548751.2455000002 682601.8783, 548776.2556999996 682613.2039999999, 548779.5674 682596.2075999994, 548784.7538000001 682585.3505000006, 548799.3912000004 682553.2635999992, 548819.6835000003 682536.7357999999, 548848.9429000001 682524.4726999998, 548885.7629000004 682516.9116999991, 548926.8321000002 682508.8818999995, 548947.5932 682515.4898000006, 548960.3404999999 682513.1307999995, 548989.1310999999 682511.7248, 548989.631 682512.3183999993, 548999.8318999996 682508.7566, 549011.5324999997 682508.3971999995, 549010.5015000002 682526.9869999997, 549009.8141999999 682537.6566000003, 549000.3631999996 682542.7181000002, 548999.5196000002 682549.9507999998, 548964.5897000004 682573.0866999999, 548941.9228999997 682591.0204000007, 548925.4107999997 682601.8774999995, 548914.5538999997 682603.7677999996, 548902.994 682640.8067000005, 548893.5428999998 682670.0817000009, 548892.6057000002 682697.9193999991, 548887.4194 682726.2414999995, 548884.1076999996 682738.9888000004, 548875.1409 682742.7692000009, 548865.7055000002 682742.7693000007, 548869.0018999996 682809.3173999991, 548869.0018999996 682814.9880999997, 548808.1244999999 682837.6396999992, 548803.3912000004 682829.6103000008, 548779.3181999996 682813.5669999998, 548750.2932000002 682793.5088999998, 548727.1731000002 682773.6852000002, 548714.4259000001 682766.1243999992, 548704.9903999995 682761.4067000002, 548690.3529000003 682744.4261000007, 548670.9976000004 682710.9021000005, 548654.4855000004 682671.2544999998, 548629.9437999995 682637.2775999997, 548625.9291000003 682635.1531000007, 548614.6034000004 682637.0432999991, 548590.5303999996 682619.1097999997, 548573.5340999998 682612.0176999997, 548548.5239000004 682596.9116999991, 548505.5642999997 682564.8249999993, 548556.3030000003 682484.8264000006, 548501.0806 682447.0536000002, 548463.7917 682419.216, 548412.3497000001 682382.3960999995, 548360.4232999999 682347.9350000005, 548346.0357999997 682359.9792999998, 548298.3587999996 682401.5175000001, 548289.8606000002 682404.8137999997, 548263.4287999999 682399.6274999995, 548239.3558999998 682393.0196000002, 548203.9573999997 682378.8509999998, 548196.4121000003 682385.9432999995, 548136.2222999996 682453.1947000008, 548103.6513 682487.6560999993, 548103.6513 682491.4365999997, 548080.0626999997 682479.6267000008, 548058.3485000003 682471.6129999999, 548041.8208999997 682466.4110000003, 548005.9538000003 682498.5135999992, 548008.7812999999 682513.6197999995, 548017.2795000002 682522.1022999994, 548033.8073000005 682533.4434999991, 548048.8976999996 682545.7063999996, 548066.8469000002 682549.4868000001, 548072.5021000002 682561.7653000001, 548083.3591 682574.0283000004, 548097.9966000002 682581.5890999995, 548120.1793 682582.9948999994, 548135.2854000004 682587.2438999992, 548144.7209000001 682597.1635999996, 548144.7209000001 682608.9580000006, 548143.2993999999 682629.7191000003, 548146.6112000002 682645.2938000001, 548163.1232000003 682626.4228000008, 548183.4312000005 682602.3498, 548190.0860000001 682588.7120999992, 548193.8038999997 682581.1042999998, 548202.3021 682588.6651000008, 548209.1443999996 682595.5073000006, 548225.2034999998 682618.1587000005, 548229.9211999997 682628.5470000003, 548290.3300000001 682626.6565000005, 548356.8779999996 682612.0187999997, 548371.9841 682610.6127000004, 548389.449 682615.3303999994, 548410.2259 682630.9049999993, 548428.1595000001 682646.4796999991, 548443.0313999997 682667.0065000001, 548458.1218999997 682690.6106000002, 548472.7593999999 682727.4308000002, 548488.3344 682775.5766000003, 548502.5033 682837.8756000008, 548494.3333 682855.4498999994, 548504.4091999996 682841.1093000006, 548511.767 682829.2523999996, 548528.9349999996 682802.6954999994, 548538.7452999996 682785.5117000006, 548539.9793999996 682793.2913000006, 548544.0724 682800.2429000009, 548545.6969999997 682804.7262999993, 548552.2424999997 682826.3934000004, 548561.2406000001 682856.6524999999, 548572.2696000002 682880.7722999994, 548582.0800000001 682909.3911000006, 548586.9852 682924.1065999996, 548591.4842999997 682932.2766999993, 548598.4359999998 682940.8529000003, 548612.7454000004 682957.2086999994, 548621.7434999999 682967.4252000004, 548634.0065000001 682982.9685999993, 548646.6756999996 682998.4965000004, 548658.1264000004 683013.6182000004, 548668.3428999996 683028.7555, 548676.9193000002 683041.0184000004, 548682.6524 683048.7822999991, 548686.7297 683051.2349999994, 548691.6348000001 683052.8751999997, 548698.1803000001 683055.3277000003, 548713.3020000001 683058.5925999992, 548722.3000999996 683060.6390000004, 548748.8880000003 683066.0752000008, 548753.6213999996 683064.7316999994, 548806.2818999998 683069.4492000006, 548856.2397999996 683075.5256999992, 548899.4491999997 683077.5563999992, 548908.9002999999 683087.6790999994, 548911.6029000003 683123.4682999998, 548921.0541000003 683136.9652999993, 548928.4742999999 683151.8213999998, 548936.5821000002 683177.4721000008, 548950.4230000004 683213.5892999992, 548966.6226000004 683237.2247000001, 548971.3561000004 683256.7985999994, 548972.0278000003 683271.6547999997, 548977.4329000004 683288.5417, 548983.5097000003 683295.9619999994, 549003.0837000003 683320.2690999992, 549023.3293000003 683345.9198000003, 549026.7193 683355.3708999995, 549025.3602999998 683368.1962000001, 549073.9748 683398.5800000001, 549111.4354999997 683436.7279000003, 549120.2149 683448.8814000003, 549120.9023000002 683459.0043000001, 549125.6201 683475.8913000003, 549124.9484999999 683498.8394000009, 549122.2460000003 683544.0797000006, 549133.7280000001 683583.2273999993, 549115.4976000004 683585.9300999995, 549081.0674999999 683575.8074999992, 549012.1918000001 683542.7211000007, 549003.4281000001 683560.2798999995, 549007.4742 683567.7002000008, 549041.9042999996 683593.3663999997, 549056.0887000002 683602.1456000004, 549069.5857999995 683615.6425999999, 549073.9754999997 683634.2010999992, 549071.9446999999 683647.7138, 549065.8679999998 683661.2108999994, 548986.5420000004 683820.2083999999, 548899.6239 683984.7827000003, 548800.8794999998 683960.3040999994, 548798.3487999998 683952.7118999995, 548775.5568000004 683931.6073000003, 548740.9549000002 683912.2052999996, 548659.9412000002 683884.3522999994, 548596.2204999998 683859.4517999999, 548521.1118000001 683845.1115000006, 548508.3175999997 683844.5179999992, 548498.0698999995 683843.2369999997, 548480.5581 683843.6589000002, 548467.3265000004 683846.6426999997, 548475.8716000002 683865.4354999997, 548465.6239 683869.7003000006, 548455.3761 683870.9812000003, 548434.4587000003 683867.1384999994, 548416.9625000004 683866.7167000007, 548397.7479999997 683869.7006000001, 548390.4995999997 683869.9036999997, 548383.8760000002 683853.0479000006, 548381.9544000002 683835.9735000003, 548380.4546999997 683819.1177999992, 548386.0158000002 683769.4878000002, 548383.8755999999 683732.3552999999, 548379.6108999997 683720.8265000004, 548358.6934000002 683696.4880999997, 548296.3629999999 683641.8596000001, 548267.3380000005 683605.1488000005, 548262.2139999997 683580.8103999998, 548315.9992000004 683559.4708999991, 548414.6184999999 683607.7101000007, 548453.4537000004 683580.1688999999, 548479.0730999997 683568.9681000002, 548517.3773999996 683579.7937000003, 548540.4348999998 683585.7766999993, 548590.3772999998 683599.8672000002, 548627.5253999997 683611.4582000002, 548652.3480000002 683569.5609000009, 548738.4227999998 683442.9783999994, 548802.5647 683338.3287000004, 548779.7728000004 683321.4419, 548729.9866000004 683268.2817000002, 548690.6825000001 683223.6820999999, 548688.6360999998 683269.1254999992, 548662.4699999997 683294.4483000003, 548632.9297000002 683313.8504000008, 548637.9912 683347.6087999996, 548613.6525999997 683346.4528999999, 548594.7817000002 683342.6725999992, 548575.8952000001 683341.2666999996, 548568.8810999999 683339.1109999996, 548551.3536 683333.7060000002, 548510.7529999996 683324.2707000002, 548478.1974999998 683307.2744999994, 548451.0158000002 683282.4049999993, 548450.3442000002 683281.7957000006, 548457.4206999997 683280.8428000007, 548462.1383999996 683275.6564000007, 548463.7943000002 683269.2828000002, 548458.1235999996 683265.5023999996, 548453.8901000004 683259.8473000005, 548458.1235999996 683254.1766999997, 548458.6079000002 683240.4921000004, 548456.2489 683232.9469000008, 548441.6114999996 683230.1038000006, 548419.8974000001 683230.5881999992, 548406.2128999997 683230.1040000003, 548395.3558999998 683226.8079000004, 548386.1234999998 683226.4017999992, 548384.4989 683226.3392999992, 548359.4885999998 683190.4565999992, 548313.7015000004 683127.6889999993, 548286.551 683098.1798999999, 548303.5471999999 683083.5580000002, 548317.716 683075.5283000004, 548304.5000999998 683059.9537000004, 548293.1588000003 683047.2064999994, 548285.6135 683049.5654000007, 548260.119 683038.7084999997, 548266.2582999999 683020.3061999995, 548306.6242000004 682915.7502999995, 548320.7773000002 682878.9456999991, 548320.7772000004 682868.5572999995, 548301.8905999996 682823.7234000005, 548266.4917000001 682741.1163999997, 548262.2426000005 682733.0867999997, 548259.8838999998 682743.4751999993, 548255.1661999999 682768.0167999994, 548250.4484999999 682775.5777000003, 548219.0647 682793.7458999995, 548148.7363 682828.6762000006, 548143.5344000002 682826.3172999993, 548139.7693999996 682818.2879000008, 548127.9594999999 682807.8994999994, 548094.4510000004 682768.7363000009, 548058.1151 682726.7141999993, 548043.9462000001 682713.0296999998, 548039.2284000004 682714.9199000001, 548014.2183999997 682744.6635999996, 548001.0026000002 682771.5642000008, 547972.9150999999 682823.7249999996, 547947.4206999997 682867.6218999997, 547949.3109999998 682878.4633000009, 547992.2704999996 682886.4925999995, 548029.0750000002 682890.2729000002, 548056.4595999997 682886.9609999992, 548059.7559000002 682904.8946000002, 548046.54 682938.4186000004, 548037.3389999997 682965.0847999994, 548033.0900999997 683000.4834000003, 548031.6842 683027.3838999998, 548038.2922 683061.3765999991, 548043.4786999999 683088.2769000009, 547937.7516999999 683110.4602000006, 547863.6427999996 683125.5667000003, 547859.1594000002 683087.5748999994, 547848.7707000002 683026.2131999992, 547841.7408999996 682970.4283000007, 547808.3887 682974.5526, 547806.7326999996 682916.9088000003, 547825.6816999996 682918.5646000002, 547824.0257000001 682905.3798999991, 547839.0067999996 682892.6326000001, 547840.5219999999 682864.5449000001, 547806.9981000004 682861.7175999992, 547808.1853 682857.6715999991, 547815.4961999999 682832.4582000002, 547823.0569000002 682791.8575999998, 547820.4636000004 682773.6896000002, 547819.9792999998 682754.3344, 547804.4044000003 682727.4341000002, 547803.4670000002 682684.0058999993, 547802.7638999997 682626.1901999991, 547803.2324999999 682591.7289000005, 547797.0930000003 682573.7952999994, 547772.0827000001 682522.3533999994, 547756.9764999999 682479.3939999994, 547786.7044000002 682470.4271000009, 547814.1513999999 682442.1205000002, 547798.6235999996 682430.9198000003, 547791.7812000001 682424.9210999999, 547791.7812000001 682412.0646000002, 547777.6436999999 682412.5021000002, 547787.9227 682396.6460999995, 547799.4825999998 682383.3675999995, 547817.9003999997 682370.5420999993, 547829.8978000004 682359.3882999998, 547842.7388000004 682349.9838999994, 547844.0509000001 682333.3156000003, 547830.6007000003 682314.6634999998, 547788.5938999997 682249.5372000001, 547763.5835999995 682210.8267999999, 547728.4192000004 682156.3076000009, 547677.9143000003 682076.0750999991, 547622.2073999997 681991.5778999999, 547599.0873999996 682001.0292000007, 547580.6852000002 682007.1528999992, 547559.6741000004 682007.8716000002, 547517.6677999999 682066.8747000005, 547505.8734999998 682082.9181999993, 547502.5618000003 682097.0713999998, 547507.7482000003 682108.8814000003, 547526.1661999999 682134.3600999992, 547525.6974999998 682155.1369000003, 547525.6975999996 682166.9312999994, 547522.3858000003 682180.1470999997, 547511.5288000004 682189.5826999992, 547482.7383000003 682212.2498000003, 547471.8812999995 682216.9674999993, 547461.9770999998 682211.2970000003, 547446.4024 682201.8616000004, 547412.4096999997 682180.1477000006, 547361.6705999998 682152.5288999993, 547306.9167999998 682123.2698999997, 547280.9535999997 682101.5559, 547269.1593000004 682078.9046, 547262.5513000004 682076.5457000006, 547252.1628999999 682077.0144999996, 547251.6942999996 682083.6224000007, 547252.1629999997 682099.1972000003, 547236.5882000001 682094.0109000001, 547234.6979999999 682083.6225000005, 547228.5741999997 682071.8281999994, 547225.2624000004 682054.3631999996, 547227.1524999999 682032.6491999999, 547224.3250000002 682021.3234000001, 547220.0758999996 682001.0309999995, 547212.7493000003 681988.0494999997, 547108.9117999999 681775.6426999997, 547105.6156000001 681777.5329, 547086.2605999997 681794.9978999998, 547055.5798000004 681820.9613000005, 547027.7264999999 681844.0813999996, 547032.6941999998 681852.3452000003, 547051.0965999998 681877.8396000005, 547116.7076000003 681971.2880000006, 547110.3339999998 681980.9576999992, 547086.2611999996 682005.0307999998, 547123.7845999999 682094.4801000003, 547161.5422 682187.9441, 547180.4287999999 682186.5223999992, 547190.8015999999 682178.9770999998, 547191.2857999997 682192.6616999991, 547181.8348000003 682208.7051999997, 547170.5092000002 682211.0640999991, 547155.4030999998 682217.6721999999, 547145.9676000001 682228.0605999995, 547143.8432 682241.5108000003, 547149.0296 682267.4739999995, 547162.2456999999 682320.8060999997, 547178.0706000002 682386.6512000002, 547185.1471999995 682420.1596000008, 547186.0845999997 682444.2324999999, 547181.8355999999 682461.6974999998, 547177.1179999998 682486.2391999997, 547187.5062999995 682489.5508999992, 547211.5791999996 682491.4409999996, 547226.6853 682492.3782000002, 547246.9779000003 682503.2352000009, 547267.2703 682518.3410999998, 547280.0175999999 682523.0588000007, 547299.3103 682525.5581999999, 547325.3046000004 682522.4962000009, 547351.2364999996 682520.6370999999, 547377.9025999997 682520.6370000001, 547390.4935999997 682520.2775999997, 547405.6935 682522.1208999995, 547414.5822000001 682523.2300000004, 547420.1278999997 682528.0570999999, 547423.8301999997 682542.4913999997, 547428.6573000001 682556.9414000008, 547432.3596999999 682567.6890999991, 547437.9210000001 682577.3118999992, 547432.3596999999 682588.4345999993, 547426.0642999997 682600.6508000009, 547420.8779999996 682611.0236000009, 547412.7235000003 682620.2872000001, 547411.6144000003 682630.6600000001, 547407.9121000003 682635.4715, 547403.8349000001 682644.0008000005, 547400.8668 682656.2170000002, 547400.8668 682669.9171999991, 547398.2736999998 682682.8831999991, 547397.1645999998 682698.0830000006, 547393.4622999998 682711.0489000008, 547390.4941999996 682720.6719000004, 547384.1988000004 682729.1857999992, 547382.7147000004 682735.1219999995, 547382.7148000002 682741.7924000006, 547388.2761000004 682757.3515000008, 547387.9324000003 682764.7405999992, 547400.6796000004 682763.6469999999, 547423.2840999998 682765.1308999993, 547450.7001 682769.1923999991, 547475.1479000002 682775.5033999998, 547474.7730999999 682815.1355000008, 547479.9595999997 682836.6152999997, 547479.9596999995 682872.5449999999, 547479.5848000003 682899.2268000003, 547468.8528000005 682917.3635000009, 547456.9961000001 682933.2975999992, 547459.2143999999 682935.5159000009, 547456.6211999999 682941.4521999992, 547441.0621999996 682952.9341000002, 547431.4392999997 682960.3388, 547405.1323999995 682930.7047000006, 547384.3869000003 682944.7798999995, 547358.0801999997 682960.7140999995, 547348.8321000002 682935.5164999999, 547340.6775000002 682909.2252999991, 547326.2274000002 682860.3296000008, 547319.1974999998 682832.1795000006, 547315.8543999996 682798.4680000003, 547362.9067000002 682796.6088999994, 547359.5636 682762.1475000009, 547345.676 682761.0540999994, 547337.1622000001 682760.3043000009, 547324.1962000001 682759.5701000001, 547320.1659000004 682759.2263999991, 547320.2127999999 682759.5546000004, 547305.8251999998 682760.5544000007, 547269.6144000003 682774.2546999995, 547277.2065000003 682800.7645999994, 547279.9716999996 682820.4946999997, 547247.6193000004 682826.0561999995, 547254.4932000004 682927.9404000007, 547217.7981000002 682943.3123000003, 547234.1695999997 682965.1357000005, 547242.1053999998 682984.4751999993, 547248.5416000001 683018.6865999997, 547248.0417999998 683033.5739999991, 547232.1858999999 683061.3491999991, 547225.7342999997 683079.6890999991, 547229.2023 683094.0766000003, 547117.6168999998 683041.0105000008, 547138.9402999999 682969.1040000003, 547141.9238 682934.8769000005, 547146.8759000003 682916.5216000006, 547138.4402000001 682902.6338999998, 547144.3919000002 682882.3102000002, 547151.3435000004 682868.9223999996, 547174.6508999998 682856.0187999997, 547193.9903999995 682841.1469, 547215.3137999997 682827.2591999993, 547222.2653999999 682808.4195000008, 547219.7814999996 682799.9837999996, 547208.3777999999 682805.9356999993, 547151.8432 682831.7272999994, 547108.6963999998 682850.0672999993, 547066.5336999996 682866.9388999995, 547040.7424999997 682879.8267999999, 547014.2171999998 682944.0474999994, 546989.4102999996 683001.0822000001, 546964.119 683050.6810999997, 546938.3278999999 683116.1513999999, 546877.0911999997 683098.5461999997, 546781.8617000002 683068.2874999996, 546728.7950999998 683052.9160999991, 546707.4715999998 683042.9965000004, 546642.5011999998 683005.3016999997, 546612.5076000001 682984.2282999996, 546590.1842999998 682962.4049999993, 546583.7324000001 682946.5335000008, 546583.7324000001 682920.2578999996, 546584.7319999998 682887.5149000008, 546582.2482000003 682867.6754999999, 546578.2801999999 682855.2875999995, 546562.9084000001 682806.1887999997, 546561.4243000001 682787.3334999997, 546559.9245999996 682772.9616, 546564.8921999997 682727.8307000007, 546581.2635000004 682692.6194000002, 546586.2154999999 682679.2160999998, 546568.3598999996 682673.2643999998, 546544.5526 682660.3765999991, 546517.2775999997 682765.5102999993, 546494.4702000003 682812.1410000008, 546437.9357000003 682861.7244000006, 546384.3693000004 682894.4675999992, 546330.3185999999 682921.2433000002, 546279.4703000002 682941.3330000006, 546316.1814000001 683027.6267000008, 546203.5968000004 683131.7765999995, 546194.1769000003 683135.7445999999, 546153.5137 683089.6141999997, 546142.5943 683091.0982000008, 546143.0942000002 683099.5339000002, 546137.6421999997 683100.5337000005, 546134.6584000001 683061.3546999991, 546144.0938999997 683058.8708999995, 546143.0939999996 683047.4670000002, 546163.9176000003 683033.5792999994, 546162.4335000003 683030.0956999995, 546195.1763000004 683002.8202, 546197.8942 682913.8080000002, 546197.8942 682908.8403999992, 546203.8457000004 682802.2226999998, 546209.0477 682800.4887000006, 546221.9512 682793.0371000003, 546222.4510000004 682788.0850000009, 546219.9671 682767.2613999993, 546220.9512 682743.9383000005, 546215.4992000004 682730.0664000008, 546197.3936999999 682686.1696000006, 546203.8453000002 682653.4421999995, 546117.9420999996 682674.2975999992, 546112.3491000002 682531.0160000008, 546228.6519999998 682522.0642000008, 546263.6130999997 682522.7513999995, 546271.0489999996 682521.2673000004, 546238.8057000004 682443.4091999996, 546283.9365999997 682419.1017000005, 546387.5856999997 682371.9864000008, 546372.2138999999 682316.9357999992, 546349.4062000001 682279.2410000004, 546150.2779000001 682370.2534999996, 546128.4703000002 682432.7401999999, 546139.8742000004 682491.7587000001, 546123.0028999997 682500.1944999993, 546108.6310999999 682504.6467000004, 546090.7755000005 682507.1305999998, 546063.9845000003 682483.3234000001, 546028.7731999997 682449.6119999997, 546006.4654999999 682424.3050999995, 545973.7225000001 682391.0780999996, 545942.4792 682363.8028999995, 545936.0431000004 682365.7869000006, 545940.9951999998 682402.4976000004, 545946.1973000001 682422.0872000009, 545959.6008000001 682474.6538999993, 545948.1814000001 682473.1699000001, 545930.3415000001 682472.6700999998, 545933.8096000003 682519.7849000003, 545952.1495000003 682548.5442999993, 545952.3996000001 682580.0374999996, 545951.9934 682583.3960999995, 545988.0169000002 682586.4734000005, 545997.0773999998 682579.5686000008, 546004.2944999998 682576.7566999998, 546017.1199000003 682579.5684999991, 546053.1123000002 682638.7274999991, 546040.8962000003 682652.5214000009, 546054.8152000001 682677.0003999993, 546080.1067000004 682725.0993000008, 546071.4992000004 682726.9114999995, 545934.3883999996 682738.1753000002, 545846.9230000004 682744.3150999993, 545799.0895999996 682749.1735999994, 545792.9501999998 682710.2914000005, 545794.9966000002 682693.4045000002, 545789.3727000002 682673.9712000005, 545784.7642999999 682670.8937999997, 545778.625 682655.5533000007, 545757.1453 682665.7855999991, 545736.1655000001 682682.6727000009, 545716.2165999999 682626.3880000003, 545735.6497999998 682624.3414999992, 545749.4593000002 682606.4389999993, 545760.7224000003 682585.9747000001, 545771.4544000002 682563.9793999996, 545786.2948000003 682522.0351, 545788.8567000004 682508.7255000006, 545785.2792999996 682498.5089999996, 545696.2674000002 682503.1021999996, 545611.8481999999 682509.7575000003, 545613.3948999997 682542.5003999993, 545617.4721999997 682575.7432000004, 545621.3152000001 682598.0040000007, 545627.4545999998 682628.7004000004, 545637.6867000004 682646.0873000007, 545643.8262 682663.4898000006, 545642.7950999998 682675.7526999991, 545639.2177999998 682686.5003999993, 545622.8464000002 682700.8256000001, 545646.3881999999 682704.4027999993, 545666.8525 682706.9647000004, 545686.2857999997 682702.8717, 545690.3787000002 682717.1967999991, 545699.3300000001 682757.8596999999, 545712.6242000004 682813.6290000007, 545741.7900999999 682935.3838, 545768.3941000002 683055.0921999998, 545669.1498999996 683026.9582000002, 545551.4878000002 682987.0454999991, 545550.4722999996 682960.4418000001, 545556.3459999999 682931.5417999998, 545572.7171 682840.9988000002, 545573.6074999999 682835.6093000006, 545517.8540000003 682825.4868000001, 545516.1668999996 682835.5471000001, 545449.6343999999 682837.2189000007, 545411.0489999996 682837.2191000003, 545395.3962000003 682841.1402000003, 545353.4523 682870.2123000007, 545346.1881999997 682886.9900000002, 545329.4106000001 682876.3673999999, 545296.4177000001 682838.3443999998, 545270.8916999996 682775.5143999998, 545268.8452000003 682735.1011999995, 545272.9380000001 682712.0905000009, 545272.1100000003 682707.2791000009, 545274.9375 682707.6383999996, 545271.2505999999 682647.0577000007, 545270.0321000004 682623.7346000001, 545261.0182999996 682596.7248999998, 545259.3779999996 682578.3069000002, 545257.9563999996 682559.6860000007, 545260.8150000004 682529.3956000004, 545264.5016999999 682522.4440000001, 545267.7665999997 682514.2581999991, 545275.5461999997 682498.7146000005, 545291.5113000004 682453.2868000008, 545306.2423999999 682426.6831, 545316.4744999995 682406.6249000002, 545304.1957999999 682401.7197999991, 545288.0275999997 682421.1532000005, 545257.3311999999 682460.0354999993, 545249.9735000003 682474.3606000002, 545238.1010999996 682485.8114, 545222.1359000001 682504.2292999998, 545207.4046 682497.6840000004, 545179.3795999996 682531.4423999991, 545171.2095999997 682577.5107000005, 545169.3505999995 682577.7293999996, 545148.0740999999 682585.2590999994, 545129.7344000004 682620.2984999996, 545114.6752000004 682656.9626000002, 545138.9044000003 682663.1953999996, 545144.7937000003 682669.0847999994, 545172.6628 682695.9694999997, 545190.0340999998 682719.5736999996, 545199.4227999998 682734.7734999992, 545212.8262 682759.8149999995, 545190.0343000004 682782.1539999992, 545186.2383000003 682785.5438000001, 545195.5330999997 682790.4489999991, 545208.5927999998 682798.6816000007, 545217.9189999998 682797.9317000005, 545233.2437000005 682796.057, 545258.2383000003 682804.2738000005, 545262.7218000004 682813.5998999998, 545255.6295999996 682838.6259000003, 545247.6939000003 682864.8545999993, 545180.1931999996 682952.4611000009, 545172.523 682951.6019000001, 545172.5073999995 682952.3048999999, 545143.4044000003 682987.6568, 545143.7794000003 682989.9063000008, 545173.8667000001 683018.9310999997, 545178.6157 683030.5536000002, 545212.9209000003 683060.6406999994, 545215.5608999999 683064.3274000008, 545226.1211000001 683067.4986000005, 545226.6522000004 683076.9965000004, 545250.3971999995 683121.8617000002, 545221.3723999998 683142.9666000009, 545218.7324000001 683147.2000999991, 545217.6544000003 683155.8702000007, 545217.7950999998 683155.8233000003, 545216.2800000003 683230.0103999991, 545217.7955 683296.6054999996, 545220.0608000001 683350.3439000007, 545226.12</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004220</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Corofin Wetlands SPA</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="E5" t="n">
-        <v>599.863914456</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Irish Grid</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1:5000</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>http://www.npws.ie/protected-sites/spa/004220</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>cl</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
-        <v>45761.4429857</v>
-      </c>
-      <c r="K5" t="n">
-        <v>5998639.14456</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>POLYGON ((530679.5078999996 690569.4918000009, 530739.8777000001 690583.4103999995, 530774.2063999996 690611.7947000004, 530814.1353000002 690648.8021000009, 530826.3436000003 690660.7057000007, 530814.9789000005 690670.1099999994, 530821.7041999996 690705.6022999994, 530842.5746999998 690729.1753000002, 530888.0493000001 690757.5595999993, 530924.5648999996 690763.3706, 530937.0075000003 690768.6819000002, 530963.2127999999 690795.3010000009, 531022.0126999998 690860.4273000006, 531022.0126999998 690862.2237999998, 531023.5437000003 690865.2699999996, 531025.3402000004 690869.8314999994, 531025.0981000001 690873.3775999993, 531024.3639000002 690879.7200000007, 531026.4104000004 690883.7816000003, 531028.9956999999 690897.9816999994, 531029.8003000002 690910.6664000005, 531028.1446000002 690941.5973000005, 531029.1911000004 690948.9550999999, 531034.0339000002 690957.3282999992, 531044.4692000002 690967.4666000009, 531048.0153000001 690968.9818999991, 531048.6869999999 690968.8101000004, 531057.8881999999 690966.4355999995, 531078.9148000004 690961.1084000003, 531079.3054 690968.5600000005, 531081.2736999998 690969.466, 531088.2096999995 690972.6841000002, 531091.3185 690974.1054999996, 531109.6582000004 690982.2444000002, 531123.7801999999 690987.8837000001, 531135.1370999999 690991.2266000006, 531135.8400999997 690991.3828999996, 531138.5739000002 690991.9921000004, 531152.9614000004 690995.4443999995, 531166.3959999997 690996.0222999994, 531191.3594000004 690991.6325000003, 531220.4310999997 690984.4619999994, 531259.9225000003 690971.9020000007, 531263.2029999997 690971.1364999991, 531283.7143000001 690964.2785, 531296.8364000004 690960.4042000007, 531303.46 690958.4359000009, 531331.9380999999 690950.375, 531335.2655999996 690949.7969000004, 531330.3915999997 690933.3318000007, 531321.8151000002 690906.9156, 531324.7988999998 690906.4312999994, 531330.3757999996 690904.1504999995, 531335.1716 690900.0888999999, 531339.7018999998 690893.4965000004, 531357.4324000003 690881.5459000003, 531391.0032000002 690869.3452000003, 531427.3859000001 690851.0363999996, 531455.7858999996 690830.8531, 531490.4971000003 690815.6062000003, 531489.8722999999 690824.0263, 531488.6069999998 690843.1940000001, 531487.3416999998 690866.1889999993, 531484.7955 690894.8079000004, 531484.4049000004 690901.7127, 531513.2736 690887.6842999998, 531520.4752000002 690881.7324000001, 531554.5927999998 690868.5943999998, 531607.7999 690849.8169, 531657.7734000003 690823.5567000005, 531664.3814000003 690828.6336000003, 531670.8174999999 690828.7273999993, 531681.3777000001 690828.8679000009, 531718.1823000005 690843.3021000009, 531732.8821999999 690846.0983000007, 531742.5207000002 690847.6135000009, 531751.8936999999 690847.0979999993, 531755.4554000003 690849.1130999997, 531764.3441000003 690855.2056000009, 531773.4829000002 690857.7361999992, 531778.0286999997 690854.1743999999, 531781.8246999998 690853.4244999997, 531792.4943000004 690857.4704999998, 531797.3058000002 690857.9704, 531814.5208 690851.8778000008, 531818.8167000003 690847.5661999993, 531830.9859999996 690849.3314999994, 531838.5937000001 690852.1119999997, 531845.9515000004 690853.1273999996, 531854.5745999999 690853.3772, 531865.7285000002 690852.8617000002, 531870.7742999997 690849.8154000007, 531874.0703999996 690848.8000000007, 531878.3819000004 690850.3153000008, 531885.2085999995 690847.2690999992, 531901.2051999997 690853.0957999993, 531906.7977 690854.6735999994, 531910.7655999996 690855.7982999999, 531916.4362000003 690857.3916999996, 531932.9170000004 690861.9531999994, 531943.5710000005 690861.9530999996, 531945.0707 690858.1414000001, 531946.3203999996 690854.5953000002, 531951.3817999996 690852.8143000007, 531956.7088000001 690850.7835000008, 531961.7702000001 690851.2833999991, 531965.3475000001 690854.2047000006, 531974.8142999997 690854.8137999997, 531979.1569999997 690852.5017000008, 531991.1387999998 690847.1435000002, 531996.7470000004 690849.9397, 532000.3086999999 690852.7515999991, 532001.5897000004 690857.0943999998, 532006.9479 690860.9217000008, 532007.4633999998 690863.4835999999, 532009.7598000001 690864.7645999994, 532017.1487999996 690866.5453999992, 532025.3033999996 690870.3726000004, 532039.3316000002 690879.5581, 532043.4088000003 690886.2128999997, 532049.5324999997 690893.102, 532049.2825999996 690902.3030999992, 532054.1409 690907.4113999996, 532053.8754000003 690915.8471000008, 532034.5672000004 690968.5233999994, 532035.3327000001 690969.9605999999, 532037.0667000003 690972.7256000005, 532038.9725000001 690975.3969, 532040.9253000002 690977.7869000006, 532064.6233000001 691004.9998000003, 532069.3722999999 691014.4038999993, 532069.1223999998 691015.2943999991, 532068.3881999999 691018.4812000003, 532067.8570999997 691021.7148000002, 532067.5290000001 691024.9640999995, 532067.4197000004 691028.2446999997, 532067.5290000001 691031.5096000005, 532067.8570999997 691034.7588999998, 532068.3881999999 691037.9925999995, 532069.1224999996 691041.1795000006, 532069.7472999999 691043.2727000006, 532070.0129000004 691044.1318999995, 532069.841 691046.1784000006, 532069.7318000002 691049.4432999995, 532069.8410999998 691052.7082000002, 532070.1535 691055.9732000008, 532070.6847000001 691059.1911999993, 532071.4345000004 691062.3780000005, 532072.3717999998 691065.5178999994, 532073.5278000003 691068.5797000006, 532074.8087999998 691071.4072999991, 532080.6826 691083.4046999998, 532080.7451 691083.5609000009, 532082.2917 691086.4507999998, 532084.0256000003 691089.2159000002, 532085.9315 691091.8870999999, 532088.0091000004 691094.4023000002, 532090.2430999996 691096.7924000006, 532091.5396999996 691098.0577000007, 532092.2426000005 691098.7138, 532098.1945000002 691110.3049999997, 532098.7412999999 691111.3361000009, 532103.5839999998 691120.2716000006, 532104.2401 691121.4431999996, 532105.9583999999 691124.2238999996, 532107.8642999995 691126.8794999998, 532109.9419999998 691129.4101999998, 532111.2072999999 691130.8004999999, 532111.4105000002 691131.4098000005, 532112.5663999999 691134.4715999998, 532113.9255999997 691137.4553999994, 532114.4254999999 691138.4551999997, 532120.5492000002 691150.2026000004, 532121.5800999999 691152.0928000007, 532123.0798000004 691154.5142000001, 532134.2962999996 691171.6353999991, 532134.5306000002 691171.9790000003, 532136.4364 691174.6503999997, 532137.2330999998 691175.6501000002, 532141.5603 691181.0084000006, 532142.8569 691182.5392000005, 532145.0909000002 691184.9293000009, 532147.4808999998 691187.1632000003, 532150.0115999999 691189.2408000007, 532152.6672999999 691191.1467000004, 532155.4479 691192.8650000002, 532158.3223000001 691194.4115999993, 532158.4005000005 691194.4429000001, 532171.9132000003 691201.0820000004, 532174.8187999995 691202.3942000009, 532177.8805999998 691203.5501000006, 532180.2083 691204.2842999995, 532190.9247000003 691207.3461000007, 532191.7214000002 691207.5648999996, 532194.9082000004 691208.2990000006, 532195.8454999998 691208.4552999996, 532196.6266000001 691210.5798000004, 532205.9995999997 691240.1828000005, 532206.3120999997 691241.1668999996, 532206.8901000004 691242.7602999993, 532214.2323000003 691262.2248, 532219.6375000002 691279.8617000002, 532220.1061000004 691281.2831999995, 532220.1999000004 691281.5488000009, 532229.2448000005 691307.6993000004, 532237.0088999998 691331.5066999998, 532243.8200000003 691355.1108999997, 532244.5072999997 691357.3136, 532244.7884999998 691358.0478000008, 532245.3821999999 691360.0161000006, 532245.6946 691360.9221999999, 532271.8296999997 691433.2815000005, 532272.4702000003 691438.3585000001, 532272.5015000002 691438.5459000003, 532273.0325999996 691441.7640000004, 532273.7669000002 691444.9507999998, 532274.2198999999 691446.4973000009, 532276.3756999997 691453.6364999991, 532276.8755999999 691455.2141999993, 532278.0316000003 691458.2761000004, 532279.3907000003 691461.2598000001, 532280.2186000003 691462.8687999994, 532283.9990999997 691469.8984999992, 532290.7632999998 691490.7846000008, 532292.2785999998 691495.8616000004, 532292.8565999996 691497.6580999997, 532293.9970000004 691500.7199000008, 532295.3561000004 691503.7037000004, 532295.5279000001 691504.0629999992, 532300.5581999999 691514.0295000002, 532301.1830000002 691515.2793000005, 532298.7461000001 691529.8698999994, 532292.9035999998 691542.6797000002, 532281 691551.6621000003, 532247.6791000003 691570.7989000008, 532248.6946 691581.0309999995, 532248.1946999999 691592.7785, 532247.8354000002 691598.8553999998, 532246.9293999998 691614.2426999994, 532246.1639999999 691625.7401999999, 532243.8832999999 691642.3460000008, 532243.8832999999 691650.2661000006, 532246.1797000002 691660.9981999993, 532253.8344 691677.3541000001, 532263.2698999997 691698.8025000002, 532265.0663999999 691707.4880999997, 532266.1912000002 691720.5478000008, 532264.1135 691732.2327999994, 532261.1924 691741.8245999999, 532254.1001000004 691751.0100999996, 532246.5861999998 691756.4308000002, 532240.7437000005 691768.9438000005, 532235.7292 691783.5500000007, 532234.4795000004 691801.9210999999, 532235.2607000005 691813.9653999992, 532264.5356000001 691821.1199999992, 532289.9831999997 691829.8835000005, 532295.4665000001 691850.1447999999, 532294.7010000004 691855.7840999998, 532292.1235999996 691872.7180000003, 532285.9216999998 691887.0431999993, 532280.4543000003 691899.9154000003, 532272.5340999998 691916.1620000005, 532268.3320000004 691923.9102999996, 532263.8798000002 691931.1431000009, 532261.8803000003 691937.7355000004, 532258.881 691947.4989999998, 532256.8657 691955.0599000007, 532254.6162 691962.6363999993, 532250.3828999996 691974.0713999998, 532247.6178000001 691983.8351000007, 532244.2905000001 692003.1901999991, 532239.2604999999 692022.4986000005, 532230.0749000004 692016.0156999994, 532212.1568999998 692003.0654000007, 532207.0799000002 691999.6755999997, 532202.9713000003 691996.0826999992, 532200.0657000002 691993.0208999999, 532195.9727999996 691987.2095999997, 532187.5371000003 691977.3055000007, 532177.2893000003 691969.3228999991, 532168.9005000005 691963.3242000006, 532149.5453000003 691948.1088999994, 532132.1584000001 691931.9718999993, 532109.1945000002 691911.1952, 532090.2611999996 691933.7060000002, 532089.8081999999 691934.3778000008, 532081.8723999998 691946.2346999999, 532071.9057999998 691963.2622999996, 532069.4846000001 691968.2300000004, 532094.0729999999 691990.2875999995, 532106.8047000002 692003.2848000005, 532126.8941000002 692029.8570000008, 532143.6717999997 692054.0392000005, 532150.2016000003 692051.3366999999, 532166.0732000005 692049.1652000006, 532173.1030000001 692048.9933000002, 532184.3036000002 692053.3517000005, 532196.8479000004 692060.8655999992, 532206.7050999999 692067.3954000007, 532215.2345000003 692077.4243999999, 532216.0782000003 692085.9539000001, 532217.2498000003 692100.9975000005, 532219.0932 692117.7126000002, 532216.9062000001 692130.2567999996, 532214.4068 692151.6583999991, 532213.3289999999 692160.3597999997, 532240.6667999998 692159.7972999997, 532250.8676000005 692144.5348000005, 532251.3207 692142.5040000007, 532262.0996000003 692149.7054999992, 532278.0493000001 692165.8582000006, 532303.5281999996 692192.7272999994, 532320.6184 692198.4290999994, 532336.0992999999 692197.3198000006, 532376.9967999998 692206.2239999995, 532382.4642000003 692193.5703999996, 532382.7298999997 692192.9611000009, 532396.1174999997 692164.8265000004, 532398.2106999997 692161.6085000001, 532401.0383000001 692155.7971999999, 532404.0219 692150.0639999993, 532410.9578999998 692135.7545999996, 532424.5642999997 692110.5879999995, 532432.9687000001 692095.8410999998, 532442.6228 692076.7046000008, 532448.3090000004 692065.8005999997, 532454.2451999998 692054.4279999994, 532466.3519000001 692032.6513999999, 532475.0061999997 692015.9518999998, 532499.0164999999 691969.1961000003, 532506.7023 691952.1996999998, 532509.2017999999 691946.8882999998, 532485.9411000004 691930.7202000003, 532477.9741000002 691926.5803999994, 532467.5075000003 691918.8477999996, 532463.8990000002 691916.1920999996, 532468.0543 691909.5373, 532456.7286 691901.3983999994, 532446.7932000002 691894.6811999995, 532439.3728999998 691891.3539000005, 532429.3438999997 691885.1521000005, 532409.5198999997 691867.9372000005, 532404.6617 691862.2978000008, 532387.5246000001 691848.9257999994, 532391.2112999996 691843.8800000008, 532398.8815000001 691829.1018000003, 532399.6937999995 691819.5101999994, 532409.1917000003 691805.0443999991, 532419.2050999999 691785.1893000007, 532426.5941000003 691768.7864999995, 532439.5443000002 691740.7769000009, 532445.8398000002 691729.1386999991, 532461.1176000005 691698.1140000001, 532464.7418 691690.3500999995, 532478.3013000004 691661.2782000005, 532480.9881999996 691663.5589000005, 532485.4561000001 691667.9484999999, 532491.6423000004 691674.0408999994, 532497.1879000003 691679.6802999992, 532503.3740999997 691688.6314000003, 532512.6064999998 691697.8638000004, 532520.7141000004 691705.1121999994, 532524.3383999998 691708.5176999997, 532535.0861 691716.4066000003, 532542.6001000004 691721.5929000005, 532554.6130999997 691728.6693999991, 532568.7663000003 691737.3550000004, 532579.1078000003 691744.4002999999, 532605.1804 691760.8027999997, 532606.9143000003 691761.8807999995, 532607.5861 691760.6467000004, 532608.6172000002 691758.7565000001, 532621.9423000002 691736.8704000004, 532623.1764000002 691734.8552000001, 532629.4094000002 691723.4356999993, 532654.5131999999 691683.4441999998, 532674.8055999996 691644.4525000006, 532685.9281000001 691624.8629000001, 532689.5367 691617.8800000008, 532698.4565000003 691601.2741, 532707.9232000001 691584.6995000001, 532725.7005000003 691554.7528000008, 532733.2769999998 691539.2092000004, 532737.4011000004 691531.9295000006, 532738.8383 691529.4144000001, 532747.3832 691514.3707999997, 532758.4744999995 691495.1559999995, 532761.3958 691490.0945999995, 532747.8986 691465.1313000005, 532723.1851000004 691431.9667000007, 532689.3328999998 691393.0221999995, 532661.5732000005 691353.7651000004, 532647.0137999998 691334.8005999997, 532614.8487999998 691307.0410999991, 532582.3558 691290.4510999992, 532570.8426000001 691286.3894999996, 532552.909 691294.5753000006, 532546.5822999999 691299.9960999992, 532518.6040000003 691302.2457999997, 532502.3574999999 691290.5140000004, 532488.8134000003 691266.5973000005, 532480.2370999996 691235.4478999991, 532476.6283999998 691213.7806000002, 532474.8163000001 691193.0195000004, 532476.6283 691178.5694999993, 532468.0521 691176.2106999997, 532469.8328999998 691158.8237999994, 532480.7992000002 691145.5452999994, 532499.9045000002 691134.5475999992, 532516.7445 691134.7973999996, 532531.5225999998 691138.6246000007, 532548.6125999996 691135.0316000003, 532565.6402000003 691135.1565000005, 532578.6999000004 691137.3278000001, 532601.898 691149.0594999995, 532617.2072000001 691154.4176000003, 532623.0652999999 691158.2448999994, 532640.5772000002 691167.7584000006, 532639.9210999999 691169.7423, 532647.6851000004 691173.8663999997, 532658.4172 691181.9739999995, 532676.1009 691194.3618000001, 532681.0528999995 691187.0976999998, 532687.0047000004 691190.2376000006, 532700.0643999996 691198.1732999999, 532726.5118000004 691217.7784000002, 532738.8997999998 691220.5901999995, 532762.5197000001 691224.5580000002, 532780.7033000002 691226.0418999996, 532783.6714000003 691223.5581, 532793.0911999997 691223.7298000008, 532795.4501 691221.7927000001, 532798.5431000004 691220.0899999999, 532819.7259999998 691216.6218999997, 532824.6780000003 691215.4658000004, 532831.6297000004 691215.6377000008, 532841.3776000002 691215.7938000001, 532856.0776000004 691217.9495000001, 532862.0294000003 691218.1214000005, 532867.3095000004 691219.1053999998, 532871.9960000003 691219.9802000001, 532875.9638 691194.2357000001, 532939.8405999998 691199.5624000002, 532944.5894999998 691187.2368000001, 532951.7128999997 691165.7727000006, 532952.5565 691162.9138999991, 532953.8218 691158.5242999997, 532958.3364000004 691143.0275999997, 532968.0060999999 691114.9554999992, 532968.2715999996 691114.1587000005, 532970.0525000002 691109.5503000002, 532970.3650000002 691108.6443000007, 532972.3488999996 691102.9111000001, 532977.4414999997 691084.0088999998, 532981.5186000001 691068.6685000006, 532986.8612000002 691047.4541999996, 532990.1730000004 691035.7067000009, 532996.2810000004 691011.1807000004, 532997.4682 691002.1202000007, 532975.9571000002 690984.4521999992, 532961.5384 690967.6278000008, 532953.2119000005 690955.4741999991, 532951.8372 690948.2257000003, 532953.4617999997 690928.8706, 532949.6189000001 690914.6079999991, 532940.6519999998 690906.6410000008, 532923.3119999999 690896.7058000006, 532914.8919000002 690891.8943000007, 532900.5044 690877.3037999999, 532890.4596999995 690872.7423, 532878.9621000001 690862.5102999993, 532869.8391000004 690854.6681999993, 532849.0935000004 690836.9846000001, 532844.1102 690844.4361000005, 532838.0959000001 690847.5449000001, 532831.3317999998 690845.3578999992, 532826.9578 690847.3574999999, 532817.4910000004 690848.0918000005, 532816.2412999999 690848.1854999997, 532810.9143000003 690841.2182999998, 532809.0710000005 690836.9537000004, 532808.2429999998 690835.0634000003, 532801.8849999998 690829.3146000002, 532796.1363000004 690825.6124000009, 532787.7786999997 690822.7535999995, 532781.7800000003 690820.6916000005, 532744.3504999997 690805.9450000003, 532725.8857000005 690798.5560999997, 532713.9820999997 690793.2292, 532707.0148 690789.5269000009, 532701.2659999998 690784.1998999994, 532692.2679000003 690780.3257999998, 532677.1305999998 690770.6873000003, 532668.7418 690766.1103000008, 532655.8695999999 690760.2366000004, 532644.0751999998 690751.0355999991, 532631.5466999998 690741.2719999999, 532619.2368999999 690751.1294, 532607.9579999996 690757.8936000001, 532590.7899000002 690765.5482999999, 532573.1687000003 690776.9990999997, 532544.2687999997 690788.2937000003, 532524.9292000001 690783.6073000003, 532515.4625000004 690775.6715999991, 532508.1984999999 690780.0768999998, 532490.7178999996 690779.7958000004, 532481.0636999998 690775.6874000002, 532473.0811000001 690769.6886999998, 532462.1926999995 690763.3307000007, 532460.1775000002 690760.4563999996, 532450.8046000004 690756.9572000001, 532438.4791000001 690746.3658000007, 532429.3092 690739.1173999999, 532287.5427999999 690664.9779000003, 532249.0822999999 690641.2644999996, 532223.1973000001 690628.7359999996, 532225.8059999999 690620.0035999995, 532214.6365999999 690620.9564999994, 532203.6076999996 690620.3160999995, 532191.5477999998 690617.4729999993, 532179.5504000001 690612.6304000001, 532166.4594999999 690605.0227000006, 532144.5267000003 690591.9944000002, 532133.5603 690587.9171999991, 532115.2049000002 690588.6827000007, 532112.2211999996 690590.8072999995, 532109.4718000004 690596.6809999999, 532108.3002000004 690600.4459000006, 532107.9096999997 690604.8825000003, 532106.3475000001 690614.1305, 532105.3164999997 690617.6454000007, 532103.0982999997 690619.2074999996, 532100.2238999996 690620.7697000001, 532097.0996000003 690620.7697000001, 532085.7737999996 690618.1610000003, 532062.8413000004 690611.0064000003, 532041.3459000001 690603.5862000007, 532016.3356999997 690594.0727999993, 531994.8558999998 690584.2938000001, 531991.716 690582.0910999998, 531990.5443000002 690579.8728, 531991.0285999998 690570.5935999993, 531992.3096000003 690563.7045000009, 531989.7476000004 690558.8462000005, 531986.0765000004 690559.2836000007, 531965.3465999998 690544.8493000008, 531956.8483999996 690539.1942999996, 531941.7265999997 690526.7752, 531927.4952999996 690512.3564999998, 531912.0299000004 690500.3748000003, 531899.3607000001 690492.2204, 531885.6293000001 690481.2696000002, 531868.0861999998 690469.1161000002, 531851.2460000003 690458.5247000009, 531838.7330999998 690451.5732000005, 531822.0647999998 690446.7149, 531801.3974000001 690438.3730999995, 531759.7657000003 690422.4236999992, 531743.6597999996 690424.0483999997, 531736.0053000003 690418.6901999991, 531709.9952999996 690420.7368000001, 531676.0964000002 690427.3917999994, 531640.6509999996 690431.5004999992, 531580.7421000004 690441.2331000008, 531570.0257000001 690440.6394999996, 531566.9638999999 690440.4677000009, 531531.534 690442.7956000008, 531474.6399999997 690426.2524999995, 531427.8219999997 690414.5989999995, 531427.8689000001 690412.8337999992, 531427.9938000003 690381.1218999997, 531427.6968999999 690367.4374000002, 531428.7435999997 690359.0642000008, 531376.0674 690342.9584999997, 531347.6827999996 690333.0077, 531338.0286999997 690330.6645, 531332.7799000004 690329.3991999999, 531318.7829 690321.0885000005, 531311.4250999996 690335.7729000002, 531301.8492 690361.3769000005, 531300.8963000001 690363.5482000001, 531257.6086999997 690346.8958, 531245.0333000002 690337.2105, 531222.0694000004 690326.8065000009, 531206.5416000001 690316.5120000001, 531186.0615999997 690300.6561999992, 531154.3494999995 690273.8340000007, 531135.6348000001 690258.0406, 531132.2605999997 690254.3383000009, 531123.5904999999 690250.7765999995, 531104.0477999998 690229.9843000006, 531086.9578 690215.0969999991, 531075.4601999996 690195.6637999993, 531012.5361000001 690113.0099999998, 531010.5130000003 690101.3718999997, 531011.0050999997 690098.0756999999, 531010.7395000001 690093.2642999999, 531008.7087000003 690092.3269999996, 531008.7007999998 690089.9681000002, 531005.6311999997 690082.8602000009, 531005.1001000004 690077.7831999995, 531002.0460000001 690074.5026999991, 530997.4767000005 690071.2065999992, 530993.9072000002 690065.6296999995, 530992.6261 690061.818, 530992.6105000004 690058.7718000002, 530990.5718999999 690056.2410000004, 530984.4638999999 690050.1643000003, 530974.2862999998 690038.2449999992, 530973.0208999999 690036.7296999991, 530958.7505999999 690020.3739, 530933.381 689996.4104999993, 530918.4857999999 689993.6923999991, 530890.5075000003 689999.6445000004, 530881.4861000003 690008.9080999997, 530874.2766000004 690005.8463000003, 530871.5272000004 690008.1427999996, 530858.0144999996 690008.5489000008, 530853.3982999995 690003.3469999991, 530841.4868000001 690013.7666999996, 530830.3096000003 689996.7704000007, 530793.6220000004 689940.6732999999, 530788.2090999996 689937.1427999996, 530777.6801000005 689924.8017999995, 530777.2973999996 689921.5994000006, 530771.8376000002 689914.7727000006, 530761.9960000003 689921.5370000005, 530756.1769000003 689926.1454000007, 530753.9274000004 689909.5551999994, 530749.1003 689884.5605999995, 530737.5557000004 689829.9629999995, 530729.4869999997 689787.7222000007, 530729.3307999996 689785.9101, 530726.3627000004 689787.1754000001, 530723.4961000001 689788.0034999996, 530720.9654999999 689788.6594999991, 530713.3343000002 689791.3934000004, 530700.1497 689795.5331999995, 530691.2609000001 689795.7988000009, 530682.4112999998 689794.6585000008, 530679.3494999995 689794.3772999998, 530664.0011999998 689792.9714000002, 530635.4995999997 689791.1908, 530608.5288000004 689788.3007999994, 530590.9935999997 689787.8792000003, 530561.4217999997 689786.5984000005, 530554.4938000003 689808.0781999994, 530566.8973000003 689817.7478999998, 530588.3693000004 689832.8383000009, 530592.2434999999 689839.2743999995, 530600.2418 689846.9445999991, 530606.5215999996 689852.1621000003, 530615.9806000004 689864.6437999997, 530620.4874999998 689875.4069999997, 530634.3203999996 689886.4359000009, 530639.1710000001 689899.4955000002, 530651.4496999998 689937.2217999995, 530651.7856000001 689941.0333999991, 530655.0661000004 689945.5791999996, 530663.2207000004 689967.1370999999, 530661.9006000003 689969.9802999999, 530659.1200000001 689977.0724, 530657.4172999999 689983.3523999993, 530661.2836999996 689992.3660000004, 530670.3052000003 690006.1754999999, 530681.3809000002 690022.5313000008, 530683.3335999995 690028.2644999996, 530682.1464 690036.7313999999, 530672.5703999996 690060.9136999995, 530673.4062999999 690061.7415999994, 530671.8206000002 690070.5835999995, 530672.1019000001 690072.0051000006, 530667.8214999996 690076.9572000001, 530663.7051999997 690081.4407000002, 530641.6710000001 690088.1893000007, 530631.142 690090.0482999999, 530626.9945 690089.4547000006, 530615.2626 690084.4245999996, 530587.2686999999 690086.1275999993, 530563.2427000003 690083.5188999996, 530550.9014999997 690078.4263000004, 530538.9900000002 690057.2590999994, 530529 690036.7322000004, 530528.5625 690028.0622000005, 530524.8211000003 690017.7364000008, 530520.8219999997 690009.5505999997, 530513.0813999996 689999.7402999997, 530505.8095000004 689994.0853000004, 530495.7648 689990.4923999999, 530486.8761 689989.3520999998, 530474.3866999997 689989.0552999992, 530466.7632999998 689986.9777000006, 530458.1167000001 689981.4945, 530448.2984999996 689975.3083999995, 530442.7449000003 689968.1850000005, 530435.6760999998 689956.9686999992, 530426.9513999997 689939.9254999999, 530418.2267000005 689931.6149000004, 530410.744 689930.3651999999, 530396.2001999998 689938.2697999999, 530392.5996000003 689967.8883999996, 530388.2099000001 689990.4617999997, 530376.9233999997 689998.9287, 530360.6456000004 690005.1462999992, 530342.2356000002 690011.4418000001, 530326.9577000001 690021.1742000002, 530323.8256000001 690024.2360999994, 530320.4278999995 690026.9542999994, 530317.5143999998 690029.2974999994, 530314.1635999996 690032.5, 530306.9776999997 690036.3899000008, 530302.0411999999 690039.9359000009, 530294.4101 690046.0285, 530293.9571000002 690047.4343999997, 530295.1365999999 690052.3239999991, 530295.5037000002 690054.5265999995, 530293.4806000004 690057.4635000005, 530287.2944999998 690068.8204999994, 530283.2719999999 690077.9592000004, 530289.9189999998 690092.4090999998, 530267.1819000002 690112.9672999997, 530268.2363 690123.3556999993, 530273.8757999996 690139.5866, 530268.3380000005 690149.4908000007, 530280.8274999997 690168.5022, 530295.1213999996 690195.1214000005, 530286.3656000001 690224.5370000005, 530277.0394000001 690238.2528000008, 530262.8863000004 690250.1721999999, 530243.6561000003 690257.7957000006, 530223.5667000003 690240.2995999996, 530197.1738999998 690231.1922999993, 530184.4343999997 690214.2116, 530150.9962999998 690197.2622999996, 530150.4417000003 690191.7948000003, 530145.1381000001 690180.9846999999, 530144.7319999998 690178.2664999999, 530141.4983000001 690175.3452000003, 530137.6865999997 690169.7839000002, 530136.7414999995 690159.3487, 530133.8904999997 690151.8971999995, 530133.0469000004 690146.3358999994, 530130.4693999998 690138.7906, 530129.3992999997 690136.6349, 530124.5174000002 690120.6539999992, 530118.7374 690105.6728000008, 530115.5975000001 690098.7524999995, 530119.6747000003 690096.3311000001, 530126.0639000004 690094.3314999994, 530115.4645999996 690073.7266000006, 530114.6835000003 690071.9145, 530108.5988999996 690064.8535999991, 530096.7341999998 690050.7005000003, 530087.2987000002 690036.7346999999, 530087.1737000002 690032.4076000005, 530087.5641999999 690030.2204999998, 530086.4003999997 690027.4397999998, 530089.7747 690024.2374000009, 530091.0323000001 690024.0655000005, 530092.4538000003 690023.5031000003, 530092.3913000003 690022.2378000002, 530091.3914999999 690021.0505999997, 530092.9146999996 690018.8478999995, 530095.5312000001 690000.9612000007, 530099.1239999998 689957.8297000006, 530097.2728000004 689951.9716999996, 530097.7726999996 689936.1313000005, 530093.5703999996 689923.0715999994, 530093.2346000001 689921.6501000002, 530095.2418999998 689902.6228999998, 530107.0517999995 689888.4070999995, 530109.5669 689886.7200000007, 530108.5280999998 689881.2368999999, 530107.9500000002 689878.2061999999, 530107.8406999996 689874.9256999996, 530108.8561000004 689865.5370000005, 530112.7457999997 689845.1664000005, 530105.4504000004 689831.1693999991, 530105.3879000004 689824.9364999998, 530106.0909000002 689817.3756000008, 530107.8169999998 689813.4857000001, 530108.3404000001 689809.8147, 530110.5899 689806.7060000002, 530113.1830000002 689789.1471999995, 530118.9084000001 689788.9285000004, 530120.0955999997 689788.8816999998, 530123.1886 689787.0851000007, 530125.5708999997 689785.1324000005, 530127.8828999996 689780.6334000006, 530179.5899999999 689629.0250000004, 530162.9373000003 689626.6974999998, 530151.9554000003 689624.2137000002, 530147.0893000001 689622.0580000002, 530147.0033 689622.0110999998, 530153.0955999997 689584.4722000007, 530248.3563000001 689599.4059999995, 530262.8375000004 689604.3267999999, 530279.0996000003 689609.3256000001, 530298.1267999997 689615.2617000006, 530313.9203000003 689621.8383000009, 530323.0980000002 689626.6340999994, 530415.0000999998 689664.5161000006, 530443.4391999999 689676.0447000004, 530467.9338999996 689675.9039999992, 530489.3903000001 689676.1850000005, 530496.4277999997 689676.3256000001, 530509.2844000002 689676.8098000009, 530540.1293000001 689676.4503000006, 530562.0776000004 689668.7017999999, 530588.2281 689656.3761999998, 530595.2110000001 689653.8454999998, 530614.4334000004 689646.9718999993, 530622.9550000001 689643.5819000006, 530637.6158999996 689641.1917000003, 530664.8208999997 689642.7693000007, 530675.0999999996 689643.8939999994, 530684.7307000002 689645.5342999995, 530695.8611000003 689647.0494999997, 530699.2587000001 689647.8618000001, 530704.0154999997 689642.9098000005, 530714.1382999998 689646.9556000009, 530717.1612 689647.0181000009, 530719.9495000001 689632.0370000005, 530724.1518000001 689625.3820999991, 530728.8147999998 689618.1181000005, 530732.8139000004 689608.6201000009, 530736.2350000003 689597.5910999998, 530739.1952 689593.9356999993, 530742.4992000004 689591.2174999993, 530752.4424 689587.8900000006, 530764.7912999997 689587.9525000006, 530769.7121000001 689589.2178000007, 530775.7498000003 689591.3892000001, 530781.8969999999 689593.1074999999, 530797.0109000001 689591.5765000004, 530811.7419999996 689591.5295000002, 530826.8794999998 689593.8413999993, 530834.2138 689596.6533000004, 530853.4440000001 689600.8867000006, 530865.2929999996 689602.1206999999, 530871.6119999997 689605.5262000002, 530881.5160999997 689611.7123000007, 530893.0604999997 689620.3666999992, 530896.2550999997 689630.3332000002, 530899.1606999999 689640.2061000001, 530901.2619000003 689655.4059999995, 530905.1673999997 689658.9208000004, 530908.0886000004 689659.9674999993, 530914.1654000003 689658.6708000004, 530927.1546999998 689654.8589999992, 530939.9097999996 689646.8918999992, 530945.8459999999 689643.0958999991, 530953.6802000003 689641.5337000005, 530968.4504000004 689640.7993000001, 530980.2761000004 689640.7993000001, 530994.3119999999 689643.7517000008, 531003.1772999996 689648.9223999996, 531012.7768999999 689654.8272999991, 531020.9079 689666.6528999992, 531037.0217000004 689695.7557999995, 531046.1683 689731.4980999995, 531059.7279000003 689765.5689000003, 531062.8991 689765.6313000005, 531082.4418000001 689763.6941999998, 531108.3267999999 689760.6009, 531128.0411999999 689758.5075000003, 531140.8666000003 689759.1790999994, 531155.1292000003 689762.1471999995, 531165.2363999998 689766.4586999994, 531175.6871999996 689772.8635000009, 531186.2944 689784.3922000006, 531200.7756000003 689803.3725000005, 531213.3822999997 689819.3845000006, 531225.9733999996 689837.818, 531239.3924000002 689852.9866000004, 531249.4370999997 689864.0933999997, 531259.3881000001 689876.0127000008, 531262.8249000004 689880.1368000004, 531275.8534000004 689902.1319999993, 531288.2101999996 689918.2534999996, 531300.0044999998 689931.9223999996, 531315.0636999998 689939.7174999993, 531329.1075999998 689942.3574999999, 531345.4945999999 689938.5457000006, 531353.9303000001 689935.9211999997, 531363.0377000002 689933.4217000008, 531376.8941000002 689924.6734999996, 531388.2352999998 689917.1436999999, 531403.4507999998 689906.8022000007, 531411.0897000004 689898.8194999993, 531414.7608000003 689894.9922000002, 531419.0568000004 689889.6494999994, 531425.1960000005 689880.6827000007, 531431.1634 689872.4188000001, 531436.6153999995 689861.7022999991, 531441.1769000003 689854.4382000007, 531444.6135999998 689845.6432000007, 531446.1131999996 689832.9739999995, 531446.4412000002 689822.9605999999, 531444.4415999996 689802.8087000009, 531439.9112 689767.0040000007, 531437.6772999996 689744.0088999998, 531435.2244999995 689715.6711999997, 531387.0631999997 689716.4212999996, 531376.7366000004 689502.2018999998, 531376.6116000004 689500.9989999998, 531376.1430000002 689496.3905999996, 531376.5022999998 689492.5009000003, 531377.0959000001 689490.1420000009, 531377.3301999997 689485.4867000002, 531378.0020000003 689485.4398999996, 531380.3452000003 689485.2836000007, 531387.9060000004 689484.768100</t>
+          <t>http://www.npws.ie/protected-sites/spa/004162</t>
         </is>
       </c>
     </row>

--- a/SPA_within.xlsx
+++ b/SPA_within.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,16 +467,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004109</t>
+          <t>004030</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The Gearagh SPA</t>
+          <t>Cork Harbour SPA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,45 +485,14 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>322.577896286</v>
+        <v>2676.7264</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>3.03</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>http://www.npws.ie/protected-sites/spa/004109</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004162</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Mullaghanish to Musheramore Mountains SPA</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>co</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>4975.62530894</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>http://www.npws.ie/protected-sites/spa/004162</t>
+          <t>http://www.npws.ie/protected-sites/spa/004030</t>
         </is>
       </c>
     </row>
